--- a/lib/davinci_pdex_test_kit/requirements/hl7.fhir.us.davinci-pdex_2.0.0_reqs.xlsx
+++ b/lib/davinci_pdex_test_kit/requirements/hl7.fhir.us.davinci-pdex_2.0.0_reqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/Inferno/source/davinci-pdex-test-kit/lib/davinci_pdex_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695114D7-1865-F244-983E-5CF08B4C4649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9E1E42-0F2B-BE4A-90B8-FB13025816B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34300" windowHeight="19940" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
@@ -3190,7 +3190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3337,12 +3337,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3766,12 +3760,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AG353"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4001,7 +3994,7 @@
       <c r="AA4" s="14"/>
       <c r="AE4" s="14"/>
     </row>
-    <row r="5" spans="1:33" s="5" customFormat="1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -4097,7 +4090,7 @@
       <c r="AA6" s="14"/>
       <c r="AE6" s="14"/>
     </row>
-    <row r="7" spans="1:33" s="5" customFormat="1" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="5" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -4195,7 +4188,7 @@
       <c r="AA8" s="14"/>
       <c r="AE8" s="14"/>
     </row>
-    <row r="9" spans="1:33" s="5" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="5" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -4295,7 +4288,7 @@
       <c r="AA10" s="14"/>
       <c r="AE10" s="14"/>
     </row>
-    <row r="11" spans="1:33" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -4904,7 +4897,7 @@
       <c r="P27" s="34"/>
       <c r="U27" s="34"/>
     </row>
-    <row r="28" spans="1:21" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -4935,7 +4928,7 @@
       <c r="P28" s="34"/>
       <c r="U28" s="34"/>
     </row>
-    <row r="29" spans="1:21" ht="124" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="124" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -4962,7 +4955,7 @@
       <c r="P29" s="34"/>
       <c r="U29" s="34"/>
     </row>
-    <row r="30" spans="1:21" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -5343,7 +5336,7 @@
       <c r="P41" s="34"/>
       <c r="U41" s="34"/>
     </row>
-    <row r="42" spans="1:21" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" ht="153" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -5776,7 +5769,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" ht="136" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -6083,7 +6076,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="13" customFormat="1" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" s="13" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -6228,7 +6221,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="65" spans="1:21" s="13" customFormat="1" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" s="13" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -6326,7 +6319,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="67" spans="1:21" s="13" customFormat="1" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" s="13" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -6422,7 +6415,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="69" spans="1:21" s="13" customFormat="1" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -6616,7 +6609,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="73" spans="1:21" s="13" customFormat="1" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>72</v>
       </c>
@@ -6739,7 +6732,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="76" spans="1:21" s="13" customFormat="1" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>75</v>
       </c>
@@ -6780,7 +6773,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="77" spans="1:21" s="13" customFormat="1" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>76</v>
       </c>
@@ -6862,7 +6855,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="79" spans="1:21" s="13" customFormat="1" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>78</v>
       </c>
@@ -7108,7 +7101,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="85" spans="1:21" s="13" customFormat="1" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>84</v>
       </c>
@@ -7149,7 +7142,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="86" spans="1:21" s="13" customFormat="1" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>85</v>
       </c>
@@ -7231,7 +7224,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="M88" s="49" t="str" cm="1">
         <f t="array" ref="M88">PAGE_NAME(B88)</f>
         <v/>
@@ -7241,7 +7234,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="M89" s="49" t="str" cm="1">
         <f t="array" ref="M89">PAGE_NAME(B89)</f>
         <v/>
@@ -7251,7 +7244,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="M90" s="49" t="str" cm="1">
         <f t="array" ref="M90">PAGE_NAME(B90)</f>
         <v/>
@@ -7261,7 +7254,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="M91" s="49" t="str" cm="1">
         <f t="array" ref="M91">PAGE_NAME(B91)</f>
         <v/>
@@ -7271,7 +7264,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="M92" s="49" t="str" cm="1">
         <f t="array" ref="M92">PAGE_NAME(B92)</f>
         <v/>
@@ -7281,7 +7274,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="M93" s="49" t="str" cm="1">
         <f t="array" ref="M93">PAGE_NAME(B93)</f>
         <v/>
@@ -7291,7 +7284,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="M94" s="49" t="str" cm="1">
         <f t="array" ref="M94">PAGE_NAME(B94)</f>
         <v/>
@@ -7301,7 +7294,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="M95" s="49" t="str" cm="1">
         <f t="array" ref="M95">PAGE_NAME(B95)</f>
         <v/>
@@ -7311,7 +7304,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="M96" s="49" t="str" cm="1">
         <f t="array" ref="M96">PAGE_NAME(B96)</f>
         <v/>
@@ -7321,7 +7314,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M97" s="49" t="str" cm="1">
         <f t="array" ref="M97">PAGE_NAME(B97)</f>
         <v/>
@@ -7331,7 +7324,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M98" s="49" t="str" cm="1">
         <f t="array" ref="M98">PAGE_NAME(B98)</f>
         <v/>
@@ -7341,7 +7334,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M99" s="49" t="str" cm="1">
         <f t="array" ref="M99">PAGE_NAME(B99)</f>
         <v/>
@@ -7351,7 +7344,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M100" s="49" t="str" cm="1">
         <f t="array" ref="M100">PAGE_NAME(B100)</f>
         <v/>
@@ -7361,7 +7354,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M101" s="49" t="str" cm="1">
         <f t="array" ref="M101">PAGE_NAME(B101)</f>
         <v/>
@@ -7371,7 +7364,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M102" s="49" t="str" cm="1">
         <f t="array" ref="M102">PAGE_NAME(B102)</f>
         <v/>
@@ -7381,7 +7374,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M103" s="49" t="str" cm="1">
         <f t="array" ref="M103">PAGE_NAME(B103)</f>
         <v/>
@@ -7391,7 +7384,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="12"/>
       <c r="E104" s="12"/>
       <c r="M104" s="49" t="str" cm="1">
@@ -7403,7 +7396,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M105" s="49" t="str" cm="1">
         <f t="array" ref="M105">PAGE_NAME(B105)</f>
         <v/>
@@ -7413,7 +7406,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M106" s="49" t="str" cm="1">
         <f t="array" ref="M106">PAGE_NAME(B106)</f>
         <v/>
@@ -7423,7 +7416,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M107" s="49" t="str" cm="1">
         <f t="array" ref="M107">PAGE_NAME(B107)</f>
         <v/>
@@ -7433,7 +7426,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M108" s="49" t="str" cm="1">
         <f t="array" ref="M108">PAGE_NAME(B108)</f>
         <v/>
@@ -7443,7 +7436,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M109" s="49" t="str" cm="1">
         <f t="array" ref="M109">PAGE_NAME(B109)</f>
         <v/>
@@ -7453,7 +7446,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M110" s="49" t="str" cm="1">
         <f t="array" ref="M110">PAGE_NAME(B110)</f>
         <v/>
@@ -7463,7 +7456,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M111" s="49" t="str" cm="1">
         <f t="array" ref="M111">PAGE_NAME(B111)</f>
         <v/>
@@ -7473,7 +7466,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M112" s="49" t="str" cm="1">
         <f t="array" ref="M112">PAGE_NAME(B112)</f>
         <v/>
@@ -7483,7 +7476,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="13:17" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="13:17" ht="17" x14ac:dyDescent="0.2">
       <c r="M113" s="49" t="str" cm="1">
         <f t="array" ref="M113">PAGE_NAME(B113)</f>
         <v/>
@@ -7493,7 +7486,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="13:17" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="13:17" ht="17" x14ac:dyDescent="0.2">
       <c r="M114" s="49" t="str" cm="1">
         <f t="array" ref="M114">PAGE_NAME(B114)</f>
         <v/>
@@ -7503,7 +7496,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="13:17" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="13:17" ht="17" x14ac:dyDescent="0.2">
       <c r="M115" s="49" t="str" cm="1">
         <f t="array" ref="M115">PAGE_NAME(B115)</f>
         <v/>
@@ -7513,7 +7506,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="13:17" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="13:17" ht="17" x14ac:dyDescent="0.2">
       <c r="M116" s="49" t="str" cm="1">
         <f t="array" ref="M116">PAGE_NAME(B116)</f>
         <v/>
@@ -7523,7 +7516,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="13:17" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="13:17" ht="17" x14ac:dyDescent="0.2">
       <c r="M117" s="49" t="str" cm="1">
         <f t="array" ref="M117">PAGE_NAME(B117)</f>
         <v/>
@@ -7533,7 +7526,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="13:17" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="13:17" ht="17" x14ac:dyDescent="0.2">
       <c r="M118" s="49" t="str" cm="1">
         <f t="array" ref="M118">PAGE_NAME(B118)</f>
         <v/>
@@ -7543,7 +7536,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="13:17" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="13:17" ht="17" x14ac:dyDescent="0.2">
       <c r="M119" s="49" t="str" cm="1">
         <f t="array" ref="M119">PAGE_NAME(B119)</f>
         <v/>
@@ -7553,7 +7546,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="13:17" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="13:17" ht="17" x14ac:dyDescent="0.2">
       <c r="M120" s="49" t="str" cm="1">
         <f t="array" ref="M120">PAGE_NAME(B120)</f>
         <v/>
@@ -7563,7 +7556,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="13:17" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="13:17" ht="17" x14ac:dyDescent="0.2">
       <c r="M121" s="49" t="str" cm="1">
         <f t="array" ref="M121">PAGE_NAME(B121)</f>
         <v/>
@@ -7573,7 +7566,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="13:17" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="13:17" ht="17" x14ac:dyDescent="0.2">
       <c r="M122" s="49" t="str" cm="1">
         <f t="array" ref="M122">PAGE_NAME(B122)</f>
         <v/>
@@ -7583,7 +7576,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="13:17" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="13:17" ht="17" x14ac:dyDescent="0.2">
       <c r="M123" s="49" t="str" cm="1">
         <f t="array" ref="M123">PAGE_NAME(B123)</f>
         <v/>
@@ -7593,7 +7586,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="13:17" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="13:17" ht="17" x14ac:dyDescent="0.2">
       <c r="M124" s="49" t="str" cm="1">
         <f t="array" ref="M124">PAGE_NAME(B124)</f>
         <v/>
@@ -7603,7 +7596,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="13:17" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="13:17" ht="17" x14ac:dyDescent="0.2">
       <c r="M125" s="49" t="str" cm="1">
         <f t="array" ref="M125">PAGE_NAME(B125)</f>
         <v/>
@@ -7613,7 +7606,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="13:17" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="13:17" ht="17" x14ac:dyDescent="0.2">
       <c r="M126" s="49" t="str" cm="1">
         <f t="array" ref="M126">PAGE_NAME(B126)</f>
         <v/>
@@ -7623,7 +7616,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="13:17" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="13:17" ht="17" x14ac:dyDescent="0.2">
       <c r="M127" s="49" t="str" cm="1">
         <f t="array" ref="M127">PAGE_NAME(B127)</f>
         <v/>
@@ -7634,7 +7627,7 @@
       </c>
       <c r="Q127" s="10"/>
     </row>
-    <row r="128" spans="13:17" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="13:17" ht="17" x14ac:dyDescent="0.2">
       <c r="M128" s="49" t="str" cm="1">
         <f t="array" ref="M128">PAGE_NAME(B128)</f>
         <v/>
@@ -7644,7 +7637,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M129" s="49" t="str" cm="1">
         <f t="array" ref="M129">PAGE_NAME(B129)</f>
         <v/>
@@ -7654,7 +7647,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M130" s="49" t="str" cm="1">
         <f t="array" ref="M130">PAGE_NAME(B130)</f>
         <v/>
@@ -7664,7 +7657,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M131" s="49" t="str" cm="1">
         <f t="array" ref="M131">PAGE_NAME(B131)</f>
         <v/>
@@ -7674,7 +7667,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M132" s="49" t="str" cm="1">
         <f t="array" ref="M132">PAGE_NAME(B132)</f>
         <v/>
@@ -7684,7 +7677,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M133" s="49" t="str" cm="1">
         <f t="array" ref="M133">PAGE_NAME(B133)</f>
         <v/>
@@ -7694,7 +7687,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M134" s="49" t="str" cm="1">
         <f t="array" ref="M134">PAGE_NAME(B134)</f>
         <v/>
@@ -7704,7 +7697,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M135" s="49" t="str" cm="1">
         <f t="array" ref="M135">PAGE_NAME(B135)</f>
         <v/>
@@ -7714,7 +7707,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M136" s="49" t="str" cm="1">
         <f t="array" ref="M136">PAGE_NAME(B136)</f>
         <v/>
@@ -7724,7 +7717,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M137" s="49" t="str" cm="1">
         <f t="array" ref="M137">PAGE_NAME(B137)</f>
         <v/>
@@ -7734,7 +7727,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M138" s="49" t="str" cm="1">
         <f t="array" ref="M138">PAGE_NAME(B138)</f>
         <v/>
@@ -7744,7 +7737,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M139" s="49" t="str" cm="1">
         <f t="array" ref="M139">PAGE_NAME(B139)</f>
         <v/>
@@ -7754,7 +7747,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M140" s="49" t="str" cm="1">
         <f t="array" ref="M140">PAGE_NAME(B140)</f>
         <v/>
@@ -7764,7 +7757,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M141" s="49" t="str" cm="1">
         <f t="array" ref="M141">PAGE_NAME(B141)</f>
         <v/>
@@ -7774,7 +7767,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M142" s="49" t="str" cm="1">
         <f t="array" ref="M142">PAGE_NAME(B142)</f>
         <v/>
@@ -7784,7 +7777,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M143" s="49" t="str" cm="1">
         <f t="array" ref="M143">PAGE_NAME(B143)</f>
         <v/>
@@ -7794,7 +7787,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M144" s="49" t="str" cm="1">
         <f t="array" ref="M144">PAGE_NAME(B144)</f>
         <v/>
@@ -7804,7 +7797,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M145" s="49" t="str" cm="1">
         <f t="array" ref="M145">PAGE_NAME(B145)</f>
         <v/>
@@ -7814,7 +7807,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M146" s="49" t="str" cm="1">
         <f t="array" ref="M146">PAGE_NAME(B146)</f>
         <v/>
@@ -7824,7 +7817,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M147" s="49" t="str" cm="1">
         <f t="array" ref="M147">PAGE_NAME(B147)</f>
         <v/>
@@ -7834,7 +7827,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M148" s="49" t="str" cm="1">
         <f t="array" ref="M148">PAGE_NAME(B148)</f>
         <v/>
@@ -7844,7 +7837,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M149" s="49" t="str" cm="1">
         <f t="array" ref="M149">PAGE_NAME(B149)</f>
         <v/>
@@ -7854,7 +7847,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M150" s="49" t="str" cm="1">
         <f t="array" ref="M150">PAGE_NAME(B150)</f>
         <v/>
@@ -7864,7 +7857,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M151" s="49" t="str" cm="1">
         <f t="array" ref="M151">PAGE_NAME(B151)</f>
         <v/>
@@ -7874,7 +7867,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M152" s="49" t="str" cm="1">
         <f t="array" ref="M152">PAGE_NAME(B152)</f>
         <v/>
@@ -7884,7 +7877,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M153" s="49" t="str" cm="1">
         <f t="array" ref="M153">PAGE_NAME(B153)</f>
         <v/>
@@ -7894,7 +7887,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B154" s="11"/>
       <c r="M154" s="49" t="str" cm="1">
         <f t="array" ref="M154">PAGE_NAME(B154)</f>
@@ -7905,7 +7898,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M155" s="49" t="str" cm="1">
         <f t="array" ref="M155">PAGE_NAME(B155)</f>
         <v/>
@@ -7915,7 +7908,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M156" s="49" t="str" cm="1">
         <f t="array" ref="M156">PAGE_NAME(B156)</f>
         <v/>
@@ -7925,7 +7918,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M157" s="49" t="str" cm="1">
         <f t="array" ref="M157">PAGE_NAME(B157)</f>
         <v/>
@@ -7935,7 +7928,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B158" s="11"/>
       <c r="M158" s="49" t="str" cm="1">
         <f t="array" ref="M158">PAGE_NAME(B158)</f>
@@ -7946,7 +7939,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M159" s="49" t="str" cm="1">
         <f t="array" ref="M159">PAGE_NAME(B159)</f>
         <v/>
@@ -7956,7 +7949,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M160" s="49" t="str" cm="1">
         <f t="array" ref="M160">PAGE_NAME(B160)</f>
         <v/>
@@ -7966,7 +7959,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M161" s="49" t="str" cm="1">
         <f t="array" ref="M161">PAGE_NAME(B161)</f>
         <v/>
@@ -7976,7 +7969,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M162" s="49" t="str" cm="1">
         <f t="array" ref="M162">PAGE_NAME(B162)</f>
         <v/>
@@ -7986,7 +7979,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M163" s="49" t="str" cm="1">
         <f t="array" ref="M163">PAGE_NAME(B163)</f>
         <v/>
@@ -7996,7 +7989,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M164" s="49" t="str" cm="1">
         <f t="array" ref="M164">PAGE_NAME(B164)</f>
         <v/>
@@ -8006,7 +7999,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M165" s="49" t="str" cm="1">
         <f t="array" ref="M165">PAGE_NAME(B165)</f>
         <v/>
@@ -8016,7 +8009,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M166" s="49" t="str" cm="1">
         <f t="array" ref="M166">PAGE_NAME(B166)</f>
         <v/>
@@ -8026,7 +8019,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M167" s="49" t="str" cm="1">
         <f t="array" ref="M167">PAGE_NAME(B167)</f>
         <v/>
@@ -8036,7 +8029,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M168" s="49" t="str" cm="1">
         <f t="array" ref="M168">PAGE_NAME(B168)</f>
         <v/>
@@ -8046,7 +8039,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M169" s="49" t="str" cm="1">
         <f t="array" ref="M169">PAGE_NAME(B169)</f>
         <v/>
@@ -8056,7 +8049,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M170" s="49" t="str" cm="1">
         <f t="array" ref="M170">PAGE_NAME(B170)</f>
         <v/>
@@ -8066,7 +8059,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M171" s="49" t="str" cm="1">
         <f t="array" ref="M171">PAGE_NAME(B171)</f>
         <v/>
@@ -8076,7 +8069,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M172" s="49" t="str" cm="1">
         <f t="array" ref="M172">PAGE_NAME(B172)</f>
         <v/>
@@ -8086,7 +8079,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M173" s="49" t="str" cm="1">
         <f t="array" ref="M173">PAGE_NAME(B173)</f>
         <v/>
@@ -8096,7 +8089,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M174" s="49" t="str" cm="1">
         <f t="array" ref="M174">PAGE_NAME(B174)</f>
         <v/>
@@ -8106,7 +8099,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M175" s="49" t="str" cm="1">
         <f t="array" ref="M175">PAGE_NAME(B175)</f>
         <v/>
@@ -8116,7 +8109,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M176" s="49" t="str" cm="1">
         <f t="array" ref="M176">PAGE_NAME(B176)</f>
         <v/>
@@ -8126,7 +8119,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M177" s="49" t="str" cm="1">
         <f t="array" ref="M177">PAGE_NAME(B177)</f>
         <v/>
@@ -8136,7 +8129,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M178" s="49" t="str" cm="1">
         <f t="array" ref="M178">PAGE_NAME(B178)</f>
         <v/>
@@ -8146,7 +8139,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M179" s="49" t="str" cm="1">
         <f t="array" ref="M179">PAGE_NAME(B179)</f>
         <v/>
@@ -8156,7 +8149,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M180" s="49" t="str" cm="1">
         <f t="array" ref="M180">PAGE_NAME(B180)</f>
         <v/>
@@ -8166,7 +8159,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B181" s="6"/>
       <c r="M181" s="49" t="str" cm="1">
         <f t="array" ref="M181">PAGE_NAME(B181)</f>
@@ -8177,7 +8170,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M182" s="49" t="str" cm="1">
         <f t="array" ref="M182">PAGE_NAME(B182)</f>
         <v/>
@@ -8187,7 +8180,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M183" s="49" t="str" cm="1">
         <f t="array" ref="M183">PAGE_NAME(B183)</f>
         <v/>
@@ -8197,7 +8190,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M184" s="49" t="str" cm="1">
         <f t="array" ref="M184">PAGE_NAME(B184)</f>
         <v/>
@@ -8207,7 +8200,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M185" s="49" t="str" cm="1">
         <f t="array" ref="M185">PAGE_NAME(B185)</f>
         <v/>
@@ -8217,7 +8210,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M186" s="49" t="str" cm="1">
         <f t="array" ref="M186">PAGE_NAME(B186)</f>
         <v/>
@@ -8227,7 +8220,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M187" s="49" t="str" cm="1">
         <f t="array" ref="M187">PAGE_NAME(B187)</f>
         <v/>
@@ -8237,7 +8230,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M188" s="49" t="str" cm="1">
         <f t="array" ref="M188">PAGE_NAME(B188)</f>
         <v/>
@@ -8247,7 +8240,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M189" s="49" t="str" cm="1">
         <f t="array" ref="M189">PAGE_NAME(B189)</f>
         <v/>
@@ -8257,7 +8250,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M190" s="49" t="str" cm="1">
         <f t="array" ref="M190">PAGE_NAME(B190)</f>
         <v/>
@@ -8267,7 +8260,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M191" s="49" t="str" cm="1">
         <f t="array" ref="M191">PAGE_NAME(B191)</f>
         <v/>
@@ -8277,7 +8270,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M192" s="49" t="str" cm="1">
         <f t="array" ref="M192">PAGE_NAME(B192)</f>
         <v/>
@@ -8287,7 +8280,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M193" s="49" t="str" cm="1">
         <f t="array" ref="M193">PAGE_NAME(B193)</f>
         <v/>
@@ -8297,7 +8290,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M194" s="49" t="str" cm="1">
         <f t="array" ref="M194">PAGE_NAME(B194)</f>
         <v/>
@@ -8307,7 +8300,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M195" s="49" t="str" cm="1">
         <f t="array" ref="M195">PAGE_NAME(B195)</f>
         <v/>
@@ -8317,7 +8310,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M196" s="49" t="str" cm="1">
         <f t="array" ref="M196">PAGE_NAME(B196)</f>
         <v/>
@@ -8327,7 +8320,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M197" s="49" t="str" cm="1">
         <f t="array" ref="M197">PAGE_NAME(B197)</f>
         <v/>
@@ -8337,7 +8330,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M198" s="49" t="str" cm="1">
         <f t="array" ref="M198">PAGE_NAME(B198)</f>
         <v/>
@@ -8347,7 +8340,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M199" s="49" t="str" cm="1">
         <f t="array" ref="M199">PAGE_NAME(B199)</f>
         <v/>
@@ -8357,7 +8350,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M200" s="49" t="str" cm="1">
         <f t="array" ref="M200">PAGE_NAME(B200)</f>
         <v/>
@@ -8367,7 +8360,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M201" s="49" t="str" cm="1">
         <f t="array" ref="M201">PAGE_NAME(B201)</f>
         <v/>
@@ -8377,7 +8370,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M202" s="49" t="str" cm="1">
         <f t="array" ref="M202">PAGE_NAME(B202)</f>
         <v/>
@@ -8387,7 +8380,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B203" s="11"/>
       <c r="M203" s="49" t="str" cm="1">
         <f t="array" ref="M203">PAGE_NAME(B203)</f>
@@ -8398,7 +8391,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M204" s="49" t="str" cm="1">
         <f t="array" ref="M204">PAGE_NAME(B204)</f>
         <v/>
@@ -8408,7 +8401,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M205" s="49" t="str" cm="1">
         <f t="array" ref="M205">PAGE_NAME(B205)</f>
         <v/>
@@ -8418,7 +8411,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M206" s="49" t="str" cm="1">
         <f t="array" ref="M206">PAGE_NAME(B206)</f>
         <v/>
@@ -8428,7 +8421,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M207" s="49" t="str" cm="1">
         <f t="array" ref="M207">PAGE_NAME(B207)</f>
         <v/>
@@ -8438,7 +8431,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M208" s="49" t="str" cm="1">
         <f t="array" ref="M208">PAGE_NAME(B208)</f>
         <v/>
@@ -8448,7 +8441,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M209" s="49" t="str" cm="1">
         <f t="array" ref="M209">PAGE_NAME(B209)</f>
         <v/>
@@ -8458,7 +8451,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M210" s="49" t="str" cm="1">
         <f t="array" ref="M210">PAGE_NAME(B210)</f>
         <v/>
@@ -8468,7 +8461,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M211" s="49" t="str" cm="1">
         <f t="array" ref="M211">PAGE_NAME(B211)</f>
         <v/>
@@ -8478,7 +8471,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M212" s="49" t="str" cm="1">
         <f t="array" ref="M212">PAGE_NAME(B212)</f>
         <v/>
@@ -8488,7 +8481,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M213" s="49" t="str" cm="1">
         <f t="array" ref="M213">PAGE_NAME(B213)</f>
         <v/>
@@ -8498,7 +8491,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M214" s="49" t="str" cm="1">
         <f t="array" ref="M214">PAGE_NAME(B214)</f>
         <v/>
@@ -8508,7 +8501,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M215" s="49" t="str" cm="1">
         <f t="array" ref="M215">PAGE_NAME(B215)</f>
         <v/>
@@ -8518,7 +8511,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M216" s="49" t="str" cm="1">
         <f t="array" ref="M216">PAGE_NAME(B216)</f>
         <v/>
@@ -8528,7 +8521,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M217" s="49" t="str" cm="1">
         <f t="array" ref="M217">PAGE_NAME(B217)</f>
         <v/>
@@ -8538,7 +8531,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M218" s="49" t="str" cm="1">
         <f t="array" ref="M218">PAGE_NAME(B218)</f>
         <v/>
@@ -8548,7 +8541,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B219" s="11"/>
       <c r="M219" s="49" t="str" cm="1">
         <f t="array" ref="M219">PAGE_NAME(B219)</f>
@@ -8559,7 +8552,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B220" s="11"/>
       <c r="M220" s="49" t="str" cm="1">
         <f t="array" ref="M220">PAGE_NAME(B220)</f>
@@ -8570,7 +8563,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M221" s="49" t="str" cm="1">
         <f t="array" ref="M221">PAGE_NAME(B221)</f>
         <v/>
@@ -8580,7 +8573,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M222" s="49" t="str" cm="1">
         <f t="array" ref="M222">PAGE_NAME(B222)</f>
         <v/>
@@ -8590,7 +8583,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M223" s="49" t="str" cm="1">
         <f t="array" ref="M223">PAGE_NAME(B223)</f>
         <v/>
@@ -8600,7 +8593,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M224" s="49" t="str" cm="1">
         <f t="array" ref="M224">PAGE_NAME(B224)</f>
         <v/>
@@ -8610,7 +8603,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M225" s="49" t="str" cm="1">
         <f t="array" ref="M225">PAGE_NAME(B225)</f>
         <v/>
@@ -8620,7 +8613,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M226" s="49" t="str" cm="1">
         <f t="array" ref="M226">PAGE_NAME(B226)</f>
         <v/>
@@ -8630,7 +8623,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M227" s="49" t="str" cm="1">
         <f t="array" ref="M227">PAGE_NAME(B227)</f>
         <v/>
@@ -8640,7 +8633,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M228" s="49" t="str" cm="1">
         <f t="array" ref="M228">PAGE_NAME(B228)</f>
         <v/>
@@ -8650,7 +8643,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M229" s="49" t="str" cm="1">
         <f t="array" ref="M229">PAGE_NAME(B229)</f>
         <v/>
@@ -8660,7 +8653,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M230" s="49" t="str" cm="1">
         <f t="array" ref="M230">PAGE_NAME(B230)</f>
         <v/>
@@ -8670,7 +8663,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B231" s="11"/>
       <c r="M231" s="49" t="str" cm="1">
         <f t="array" ref="M231">PAGE_NAME(B231)</f>
@@ -8681,7 +8674,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B232" s="11"/>
       <c r="M232" s="49" t="str" cm="1">
         <f t="array" ref="M232">PAGE_NAME(B232)</f>
@@ -8692,7 +8685,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B233" s="11"/>
       <c r="M233" s="49" t="str" cm="1">
         <f t="array" ref="M233">PAGE_NAME(B233)</f>
@@ -8703,7 +8696,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B234" s="11"/>
       <c r="M234" s="49" t="str" cm="1">
         <f t="array" ref="M234">PAGE_NAME(B234)</f>
@@ -8714,7 +8707,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B235" s="11"/>
       <c r="M235" s="49" t="str" cm="1">
         <f t="array" ref="M235">PAGE_NAME(B235)</f>
@@ -8725,7 +8718,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B236" s="11"/>
       <c r="M236" s="49" t="str" cm="1">
         <f t="array" ref="M236">PAGE_NAME(B236)</f>
@@ -8736,7 +8729,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B237" s="11"/>
       <c r="M237" s="49" t="str" cm="1">
         <f t="array" ref="M237">PAGE_NAME(B237)</f>
@@ -8747,7 +8740,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B238" s="11"/>
       <c r="M238" s="49" t="str" cm="1">
         <f t="array" ref="M238">PAGE_NAME(B238)</f>
@@ -8758,7 +8751,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B239" s="11"/>
       <c r="M239" s="49" t="str" cm="1">
         <f t="array" ref="M239">PAGE_NAME(B239)</f>
@@ -8769,7 +8762,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B240" s="11"/>
       <c r="M240" s="49" t="str" cm="1">
         <f t="array" ref="M240">PAGE_NAME(B240)</f>
@@ -8780,7 +8773,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B241" s="11"/>
       <c r="M241" s="49" t="str" cm="1">
         <f t="array" ref="M241">PAGE_NAME(B241)</f>
@@ -8791,7 +8784,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B242" s="11"/>
       <c r="M242" s="49" t="str" cm="1">
         <f t="array" ref="M242">PAGE_NAME(B242)</f>
@@ -8802,7 +8795,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B243" s="11"/>
       <c r="M243" s="49" t="str" cm="1">
         <f t="array" ref="M243">PAGE_NAME(B243)</f>
@@ -8813,7 +8806,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B244" s="11"/>
       <c r="M244" s="49" t="str" cm="1">
         <f t="array" ref="M244">PAGE_NAME(B244)</f>
@@ -8824,7 +8817,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M245" s="49" t="str" cm="1">
         <f t="array" ref="M245">PAGE_NAME(B245)</f>
         <v/>
@@ -8834,7 +8827,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M246" s="49" t="str" cm="1">
         <f t="array" ref="M246">PAGE_NAME(B246)</f>
         <v/>
@@ -8844,7 +8837,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M247" s="49" t="str" cm="1">
         <f t="array" ref="M247">PAGE_NAME(B247)</f>
         <v/>
@@ -8854,7 +8847,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M248" s="49" t="str" cm="1">
         <f t="array" ref="M248">PAGE_NAME(B248)</f>
         <v/>
@@ -8864,7 +8857,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M249" s="49" t="str" cm="1">
         <f t="array" ref="M249">PAGE_NAME(B249)</f>
         <v/>
@@ -8874,7 +8867,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M250" s="49" t="str" cm="1">
         <f t="array" ref="M250">PAGE_NAME(B250)</f>
         <v/>
@@ -8884,7 +8877,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M251" s="49" t="str" cm="1">
         <f t="array" ref="M251">PAGE_NAME(B251)</f>
         <v/>
@@ -8894,7 +8887,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M252" s="49" t="str" cm="1">
         <f t="array" ref="M252">PAGE_NAME(B252)</f>
         <v/>
@@ -8904,7 +8897,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M253" s="49" t="str" cm="1">
         <f t="array" ref="M253">PAGE_NAME(B253)</f>
         <v/>
@@ -8914,7 +8907,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M254" s="49" t="str" cm="1">
         <f t="array" ref="M254">PAGE_NAME(B254)</f>
         <v/>
@@ -8924,7 +8917,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M255" s="49" t="str" cm="1">
         <f t="array" ref="M255">PAGE_NAME(B255)</f>
         <v/>
@@ -8934,7 +8927,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M256" s="49" t="str" cm="1">
         <f t="array" ref="M256">PAGE_NAME(B256)</f>
         <v/>
@@ -8944,7 +8937,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M257" s="49" t="str" cm="1">
         <f t="array" ref="M257">PAGE_NAME(B257)</f>
         <v/>
@@ -8954,7 +8947,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M258" s="49" t="str" cm="1">
         <f t="array" ref="M258">PAGE_NAME(B258)</f>
         <v/>
@@ -8964,7 +8957,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M259" s="49" t="str" cm="1">
         <f t="array" ref="M259">PAGE_NAME(B259)</f>
         <v/>
@@ -8974,7 +8967,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M260" s="49" t="str" cm="1">
         <f t="array" ref="M260">PAGE_NAME(B260)</f>
         <v/>
@@ -8984,7 +8977,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M261" s="49" t="str" cm="1">
         <f t="array" ref="M261">PAGE_NAME(B261)</f>
         <v/>
@@ -8994,7 +8987,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M262" s="49" t="str" cm="1">
         <f t="array" ref="M262">PAGE_NAME(B262)</f>
         <v/>
@@ -9004,7 +8997,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M263" s="49" t="str" cm="1">
         <f t="array" ref="M263">PAGE_NAME(B263)</f>
         <v/>
@@ -9014,7 +9007,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M264" s="49" t="str" cm="1">
         <f t="array" ref="M264">PAGE_NAME(B264)</f>
         <v/>
@@ -9024,7 +9017,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B265" s="11"/>
       <c r="M265" s="49" t="str" cm="1">
         <f t="array" ref="M265">PAGE_NAME(B265)</f>
@@ -9035,7 +9028,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M266" s="49" t="str" cm="1">
         <f t="array" ref="M266">PAGE_NAME(B266)</f>
         <v/>
@@ -9045,7 +9038,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M267" s="49" t="str" cm="1">
         <f t="array" ref="M267">PAGE_NAME(B267)</f>
         <v/>
@@ -9055,7 +9048,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M268" s="49" t="str" cm="1">
         <f t="array" ref="M268">PAGE_NAME(B268)</f>
         <v/>
@@ -9065,7 +9058,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M269" s="49" t="str" cm="1">
         <f t="array" ref="M269">PAGE_NAME(B269)</f>
         <v/>
@@ -9075,7 +9068,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M270" s="49" t="str" cm="1">
         <f t="array" ref="M270">PAGE_NAME(B270)</f>
         <v/>
@@ -9085,7 +9078,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M271" s="49" t="str" cm="1">
         <f t="array" ref="M271">PAGE_NAME(B271)</f>
         <v/>
@@ -9095,7 +9088,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="2:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M272" s="49" t="str" cm="1">
         <f t="array" ref="M272">PAGE_NAME(B272)</f>
         <v/>
@@ -9105,7 +9098,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M273" s="49" t="str" cm="1">
         <f t="array" ref="M273">PAGE_NAME(B273)</f>
         <v/>
@@ -9115,7 +9108,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M274" s="49" t="str" cm="1">
         <f t="array" ref="M274">PAGE_NAME(B274)</f>
         <v/>
@@ -9125,7 +9118,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M275" s="49" t="str" cm="1">
         <f t="array" ref="M275">PAGE_NAME(B275)</f>
         <v/>
@@ -9135,7 +9128,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M276" s="49" t="str" cm="1">
         <f t="array" ref="M276">PAGE_NAME(B276)</f>
         <v/>
@@ -9145,7 +9138,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M277" s="49" t="str" cm="1">
         <f t="array" ref="M277">PAGE_NAME(B277)</f>
         <v/>
@@ -9155,7 +9148,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M278" s="49" t="str" cm="1">
         <f t="array" ref="M278">PAGE_NAME(B278)</f>
         <v/>
@@ -9165,7 +9158,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M279" s="49" t="str" cm="1">
         <f t="array" ref="M279">PAGE_NAME(B279)</f>
         <v/>
@@ -9175,7 +9168,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M280" s="49" t="str" cm="1">
         <f t="array" ref="M280">PAGE_NAME(B280)</f>
         <v/>
@@ -9185,7 +9178,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M281" s="49" t="str" cm="1">
         <f t="array" ref="M281">PAGE_NAME(B281)</f>
         <v/>
@@ -9195,7 +9188,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M282" s="49" t="str" cm="1">
         <f t="array" ref="M282">PAGE_NAME(B282)</f>
         <v/>
@@ -9205,7 +9198,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M283" s="49" t="str" cm="1">
         <f t="array" ref="M283">PAGE_NAME(B283)</f>
         <v/>
@@ -9215,7 +9208,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M284" s="49" t="str" cm="1">
         <f t="array" ref="M284">PAGE_NAME(B284)</f>
         <v/>
@@ -9225,7 +9218,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M285" s="49" t="str" cm="1">
         <f t="array" ref="M285">PAGE_NAME(B285)</f>
         <v/>
@@ -9235,7 +9228,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M286" s="49" t="str" cm="1">
         <f t="array" ref="M286">PAGE_NAME(B286)</f>
         <v/>
@@ -9245,7 +9238,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M287" s="49" t="str" cm="1">
         <f t="array" ref="M287">PAGE_NAME(B287)</f>
         <v/>
@@ -9255,7 +9248,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M288" s="49" t="str" cm="1">
         <f t="array" ref="M288">PAGE_NAME(B288)</f>
         <v/>
@@ -9265,7 +9258,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M289" s="49" t="str" cm="1">
         <f t="array" ref="M289">PAGE_NAME(B289)</f>
         <v/>
@@ -9275,7 +9268,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M290" s="49" t="str" cm="1">
         <f t="array" ref="M290">PAGE_NAME(B290)</f>
         <v/>
@@ -9285,7 +9278,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M291" s="49" t="str" cm="1">
         <f t="array" ref="M291">PAGE_NAME(B291)</f>
         <v/>
@@ -9295,7 +9288,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M292" s="49" t="str" cm="1">
         <f t="array" ref="M292">PAGE_NAME(B292)</f>
         <v/>
@@ -9305,7 +9298,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M293" s="49" t="str" cm="1">
         <f t="array" ref="M293">PAGE_NAME(B293)</f>
         <v/>
@@ -9315,7 +9308,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M294" s="49" t="str" cm="1">
         <f t="array" ref="M294">PAGE_NAME(B294)</f>
         <v/>
@@ -9325,7 +9318,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M295" s="49" t="str" cm="1">
         <f t="array" ref="M295">PAGE_NAME(B295)</f>
         <v/>
@@ -9335,7 +9328,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M296" s="49" t="str" cm="1">
         <f t="array" ref="M296">PAGE_NAME(B296)</f>
         <v/>
@@ -9345,7 +9338,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M297" s="49" t="str" cm="1">
         <f t="array" ref="M297">PAGE_NAME(B297)</f>
         <v/>
@@ -9355,7 +9348,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M298" s="49" t="str" cm="1">
         <f t="array" ref="M298">PAGE_NAME(B298)</f>
         <v/>
@@ -9365,7 +9358,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M299" s="49" t="str" cm="1">
         <f t="array" ref="M299">PAGE_NAME(B299)</f>
         <v/>
@@ -9375,7 +9368,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M300" s="49" t="str" cm="1">
         <f t="array" ref="M300">PAGE_NAME(B300)</f>
         <v/>
@@ -9385,7 +9378,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M301" s="49" t="str" cm="1">
         <f t="array" ref="M301">PAGE_NAME(B301)</f>
         <v/>
@@ -9395,7 +9388,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M302" s="49" t="str" cm="1">
         <f t="array" ref="M302">PAGE_NAME(B302)</f>
         <v/>
@@ -9405,7 +9398,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M303" s="49" t="str" cm="1">
         <f t="array" ref="M303">PAGE_NAME(B303)</f>
         <v/>
@@ -9415,7 +9408,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M304" s="49" t="str" cm="1">
         <f t="array" ref="M304">PAGE_NAME(B304)</f>
         <v/>
@@ -9425,7 +9418,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M305" s="49" t="str" cm="1">
         <f t="array" ref="M305">PAGE_NAME(B305)</f>
         <v/>
@@ -9435,7 +9428,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M306" s="49" t="str" cm="1">
         <f t="array" ref="M306">PAGE_NAME(B306)</f>
         <v/>
@@ -9445,7 +9438,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M307" s="49" t="str" cm="1">
         <f t="array" ref="M307">PAGE_NAME(B307)</f>
         <v/>
@@ -9455,7 +9448,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M308" s="49" t="str" cm="1">
         <f t="array" ref="M308">PAGE_NAME(B308)</f>
         <v/>
@@ -9465,7 +9458,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M309" s="49" t="str" cm="1">
         <f t="array" ref="M309">PAGE_NAME(B309)</f>
         <v/>
@@ -9475,7 +9468,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M310" s="49" t="str" cm="1">
         <f t="array" ref="M310">PAGE_NAME(B310)</f>
         <v/>
@@ -9485,7 +9478,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M311" s="49" t="str" cm="1">
         <f t="array" ref="M311">PAGE_NAME(B311)</f>
         <v/>
@@ -9495,7 +9488,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M312" s="49" t="str" cm="1">
         <f t="array" ref="M312">PAGE_NAME(B312)</f>
         <v/>
@@ -9505,7 +9498,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M313" s="49" t="str" cm="1">
         <f t="array" ref="M313">PAGE_NAME(B313)</f>
         <v/>
@@ -9515,7 +9508,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M314" s="49" t="str" cm="1">
         <f t="array" ref="M314">PAGE_NAME(B314)</f>
         <v/>
@@ -9525,7 +9518,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M315" s="49" t="str" cm="1">
         <f t="array" ref="M315">PAGE_NAME(B315)</f>
         <v/>
@@ -9535,7 +9528,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M316" s="49" t="str" cm="1">
         <f t="array" ref="M316">PAGE_NAME(B316)</f>
         <v/>
@@ -9545,7 +9538,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M317" s="49" t="str" cm="1">
         <f t="array" ref="M317">PAGE_NAME(B317)</f>
         <v/>
@@ -9555,7 +9548,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M318" s="49" t="str" cm="1">
         <f t="array" ref="M318">PAGE_NAME(B318)</f>
         <v/>
@@ -9565,7 +9558,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M319" s="49" t="str" cm="1">
         <f t="array" ref="M319">PAGE_NAME(B319)</f>
         <v/>
@@ -9575,7 +9568,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M320" s="49" t="str" cm="1">
         <f t="array" ref="M320">PAGE_NAME(B320)</f>
         <v/>
@@ -9585,7 +9578,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M321" s="49" t="str" cm="1">
         <f t="array" ref="M321">PAGE_NAME(B321)</f>
         <v/>
@@ -9595,7 +9588,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M322" s="49" t="str" cm="1">
         <f t="array" ref="M322">PAGE_NAME(B322)</f>
         <v/>
@@ -9605,7 +9598,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M323" s="49" t="str" cm="1">
         <f t="array" ref="M323">PAGE_NAME(B323)</f>
         <v/>
@@ -9615,7 +9608,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M324" s="49" t="str" cm="1">
         <f t="array" ref="M324">PAGE_NAME(B324)</f>
         <v/>
@@ -9625,7 +9618,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M325" s="49" t="str" cm="1">
         <f t="array" ref="M325">PAGE_NAME(B325)</f>
         <v/>
@@ -9635,7 +9628,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M326" s="49" t="str" cm="1">
         <f t="array" ref="M326">PAGE_NAME(B326)</f>
         <v/>
@@ -9645,7 +9638,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M327" s="49" t="str" cm="1">
         <f t="array" ref="M327">PAGE_NAME(B327)</f>
         <v/>
@@ -9655,7 +9648,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M328" s="49" t="str" cm="1">
         <f t="array" ref="M328">PAGE_NAME(B328)</f>
         <v/>
@@ -9665,7 +9658,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M329" s="49" t="str" cm="1">
         <f t="array" ref="M329">PAGE_NAME(B329)</f>
         <v/>
@@ -9675,7 +9668,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M330" s="49" t="str" cm="1">
         <f t="array" ref="M330">PAGE_NAME(B330)</f>
         <v/>
@@ -9685,7 +9678,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M331" s="49" t="str" cm="1">
         <f t="array" ref="M331">PAGE_NAME(B331)</f>
         <v/>
@@ -9695,7 +9688,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M332" s="49" t="str" cm="1">
         <f t="array" ref="M332">PAGE_NAME(B332)</f>
         <v/>
@@ -9705,7 +9698,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M333" s="49" t="str" cm="1">
         <f t="array" ref="M333">PAGE_NAME(B333)</f>
         <v/>
@@ -9715,7 +9708,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M334" s="49" t="str" cm="1">
         <f t="array" ref="M334">PAGE_NAME(B334)</f>
         <v/>
@@ -9725,7 +9718,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M335" s="49" t="str" cm="1">
         <f t="array" ref="M335">PAGE_NAME(B335)</f>
         <v/>
@@ -9735,7 +9728,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M336" s="49" t="str" cm="1">
         <f t="array" ref="M336">PAGE_NAME(B336)</f>
         <v/>
@@ -9745,7 +9738,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M337" s="49" t="str" cm="1">
         <f t="array" ref="M337">PAGE_NAME(B337)</f>
         <v/>
@@ -9755,7 +9748,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M338" s="49" t="str" cm="1">
         <f t="array" ref="M338">PAGE_NAME(B338)</f>
         <v/>
@@ -9765,7 +9758,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M339" s="49" t="str" cm="1">
         <f t="array" ref="M339">PAGE_NAME(B339)</f>
         <v/>
@@ -9775,7 +9768,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M340" s="49" t="str" cm="1">
         <f t="array" ref="M340">PAGE_NAME(B340)</f>
         <v/>
@@ -9785,7 +9778,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M341" s="49" t="str" cm="1">
         <f t="array" ref="M341">PAGE_NAME(B341)</f>
         <v/>
@@ -9795,7 +9788,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M342" s="49" t="str" cm="1">
         <f t="array" ref="M342">PAGE_NAME(B342)</f>
         <v/>
@@ -9805,7 +9798,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M343" s="49" t="str" cm="1">
         <f t="array" ref="M343">PAGE_NAME(B343)</f>
         <v/>
@@ -9815,7 +9808,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M344" s="49" t="str" cm="1">
         <f t="array" ref="M344">PAGE_NAME(B344)</f>
         <v/>
@@ -9825,7 +9818,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M345" s="49" t="str" cm="1">
         <f t="array" ref="M345">PAGE_NAME(B345)</f>
         <v/>
@@ -9835,7 +9828,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M346" s="49" t="str" cm="1">
         <f t="array" ref="M346">PAGE_NAME(B346)</f>
         <v/>
@@ -9845,7 +9838,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M347" s="49" t="str" cm="1">
         <f t="array" ref="M347">PAGE_NAME(B347)</f>
         <v/>
@@ -9855,7 +9848,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M348" s="49" t="str" cm="1">
         <f t="array" ref="M348">PAGE_NAME(B348)</f>
         <v/>
@@ -9865,7 +9858,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M349" s="49" t="str" cm="1">
         <f t="array" ref="M349">PAGE_NAME(B349)</f>
         <v/>
@@ -9875,7 +9868,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M350" s="49" t="str" cm="1">
         <f t="array" ref="M350">PAGE_NAME(B350)</f>
         <v/>
@@ -9885,7 +9878,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M351" s="49" t="str" cm="1">
         <f t="array" ref="M351">PAGE_NAME(B351)</f>
         <v/>
@@ -9895,7 +9888,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M352" s="49" t="str" cm="1">
         <f t="array" ref="M352">PAGE_NAME(B352)</f>
         <v/>
@@ -9905,7 +9898,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="13:14" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="13:14" ht="17" x14ac:dyDescent="0.2">
       <c r="M353" s="49" t="str" cm="1">
         <f t="array" ref="M353">PAGE_NAME(B353)</f>
         <v/>
@@ -9916,13 +9909,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:AG353" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Server"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:AG353" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}"/>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" location="oauth20-or-smart-on-fhir-member-authorized-exchange,https://hl7.org/fhir/us/davinci-pdex/STU2/member-authorizedoauth2exchange.html,https://hl7.org/fhir/us/davinci-pdex/STU2/pdeximplementationactorsinteractionsdatapayloadsandmethods.html#oauth20-and-fhir-api" display="https://hl7.org/fhir/us/davinci-pdex/STU2/overview.html#oauth20-or-smart-on-fhir-member-authorized-exchange,https://hl7.org/fhir/us/davinci-pdex/STU2/member-authorizedoauth2exchange.html,https://hl7.org/fhir/us/davinci-pdex/STU2/pdeximplementationactorsinteractionsdatapayloadsandmethods.html#oauth20-and-fhir-api" xr:uid="{5EE1E28A-070B-D743-A7C9-FEF918CE2E39}"/>
     <hyperlink ref="B12" r:id="rId2" location="patient-everything-exchange-via-alternate-secure-transport" xr:uid="{AB9650A8-CF5C-2B4C-9E02-E92196C65927}"/>
@@ -10092,7 +10079,7 @@
       <c r="B7" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="53" t="s">
         <v>446</v>
       </c>
     </row>
@@ -10103,7 +10090,7 @@
       <c r="B8" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="16" t="s">
         <v>445</v>
       </c>
     </row>
@@ -12731,15 +12718,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
@@ -12750,6 +12728,15 @@
     <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12773,14 +12760,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12789,4 +12768,12 @@
     <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/lib/davinci_pdex_test_kit/requirements/hl7.fhir.us.davinci-pdex_2.0.0_reqs.xlsx
+++ b/lib/davinci_pdex_test_kit/requirements/hl7.fhir.us.davinci-pdex_2.0.0_reqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/Inferno/source/davinci-pdex-test-kit/lib/davinci_pdex_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9E1E42-0F2B-BE4A-90B8-FB13025816B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B0E275-D653-9643-B3E2-079BD2ED8357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34300" windowHeight="19940" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="20" yWindow="1000" windowWidth="34300" windowHeight="19940" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="10" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="455">
   <si>
     <r>
       <rPr>
@@ -875,34 +875,16 @@
     <t>https://hl7.org/fhir/us/davinci-pdex/STU2/index.html#must-support</t>
   </si>
   <si>
-    <t>For profiles defined in [US Core and referenced by PDex], the meaning of Must Support [for Servers] is established in [the US Core IG].</t>
-  </si>
-  <si>
     <t>hl7.fhir.us.core_3.1.1@75,77,78,80</t>
   </si>
   <si>
-    <t>For profiles defined in [US Core and referenced by PDex], the meaning of Must Support [for Clients] is established in [the US Core IG].</t>
-  </si>
-  <si>
     <t>Client</t>
   </si>
   <si>
     <t>hl7.fhir.us.core_3.1.1@76,79</t>
   </si>
   <si>
-    <t>For profiles defined in [DaVinci HRex and referenced by PDex], the meaning of Must Support [for Servers] is established in [the HRex IG].</t>
-  </si>
-  <si>
-    <t>For profiles defined in [DaVinci HRex and referenced by PDex], the meaning of Must Support [for Clients] is established in [the HRex IG].</t>
-  </si>
-  <si>
-    <t>[For profiles defined in the PDex IG, Servers SHALL follow] Must Support requirements … [from] the US Core Implementation Guide.</t>
-  </si>
-  <si>
     <t>Intrepretted informal language as a formal requirement</t>
-  </si>
-  <si>
-    <t>[For profiles defined in the PDex IG, Clients SHALL follow] Must Support requirements … [from] the US Core Implementation Guide.</t>
   </si>
   <si>
     <t>https://hl7.org/fhir/us/davinci-pdex/STU2/overview.html#overview</t>
@@ -2770,6 +2752,27 @@
   </si>
   <si>
     <t>hl7.fhir.uv.bulkdata_2.0.0@12-14,19-25,27-30,32-42,44,46,47,49-53,55-60,62-73,75-83,85-90,92-94,96-101,103,105-112,117,118,120-122,125,127-129,131-134,136-199,202-204,206-216,297-310</t>
+  </si>
+  <si>
+    <t>For profiles defined in [US Core and referenced by PDex], the meaning of Must Support [for Servers] is established in [the US Core IG [must support section](https://hl7.org/fhir/us/core/STU3.1.1/general-guidance.html#must-support)].</t>
+  </si>
+  <si>
+    <t>For profiles defined in [US Core and referenced by PDex], the meaning of Must Support [for Clients] is established in [the US Core IG [must support section](https://hl7.org/fhir/us/core/STU3.1.1/general-guidance.html#must-support)].</t>
+  </si>
+  <si>
+    <t>[For profiles defined in the PDex IG, Servers SHALL follow] Must Support requirements … [from] the US Core Implementation Guide [[must support section](https://hl7.org/fhir/us/core/STU3.1.1/general-guidance.html#must-support)].</t>
+  </si>
+  <si>
+    <t>[For profiles defined in the PDex IG, Clients SHALL follow] Must Support requirements … [from] the US Core Implementation Guide [[must support section](https://hl7.org/fhir/us/core/STU3.1.1/general-guidance.html#must-support)].</t>
+  </si>
+  <si>
+    <t>For profiles defined in [DaVinci HRex and referenced by PDex], the meaning of Must Support [for Servers] is established in [the HRex IG [Conformance section](https://hl7.org/fhir/us/davinci-hrex/STU1/conformance.html)].</t>
+  </si>
+  <si>
+    <t>For profiles defined in [DaVinci HRex and referenced by PDex], the meaning of Must Support [for Clients] is established in [the HRex IG [Conformance section](https://hl7.org/fhir/us/davinci-hrex/STU1/conformance.html)].</t>
+  </si>
+  <si>
+    <t>NOTE: subrequirements may be too broad based on other references to bulk data in this IG.</t>
   </si>
 </sst>
 </file>
@@ -3709,7 +3712,7 @@
     </row>
     <row r="4" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="59" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
@@ -3763,8 +3766,8 @@
   <dimension ref="A1:AG353"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3947,7 +3950,7 @@
       <c r="AA3" s="14"/>
       <c r="AE3" s="14"/>
     </row>
-    <row r="4" spans="1:33" s="5" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" s="5" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -3955,7 +3958,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>36</v>
+        <v>448</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>30</v>
@@ -3964,7 +3967,7 @@
         <v>31</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="7" t="b">
         <v>0</v>
@@ -4002,16 +4005,16 @@
         <v>35</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>38</v>
+        <v>449</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G5" s="7" t="b">
         <v>0</v>
@@ -4041,7 +4044,7 @@
       <c r="AA5" s="14"/>
       <c r="AE5" s="14"/>
     </row>
-    <row r="6" spans="1:33" s="5" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" s="5" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -4049,7 +4052,7 @@
         <v>35</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>41</v>
+        <v>452</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>30</v>
@@ -4058,7 +4061,7 @@
         <v>31</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G6" s="7" t="b">
         <v>0</v>
@@ -4083,14 +4086,14 @@
       <c r="S6" s="10"/>
       <c r="T6" s="17"/>
       <c r="U6" s="34" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="W6" s="13"/>
       <c r="Z6" s="13"/>
       <c r="AA6" s="14"/>
       <c r="AE6" s="14"/>
     </row>
-    <row r="7" spans="1:33" s="5" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="5" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -4098,16 +4101,16 @@
         <v>35</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>42</v>
+        <v>453</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G7" s="7" t="b">
         <v>0</v>
@@ -4132,14 +4135,14 @@
       <c r="S7" s="10"/>
       <c r="T7" s="17"/>
       <c r="U7" s="34" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="W7" s="13"/>
       <c r="Z7" s="13"/>
       <c r="AA7" s="14"/>
       <c r="AE7" s="14"/>
     </row>
-    <row r="8" spans="1:33" s="5" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" s="5" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -4147,7 +4150,7 @@
         <v>35</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>43</v>
+        <v>450</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>30</v>
@@ -4156,7 +4159,7 @@
         <v>31</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="7" t="b">
         <v>0</v>
@@ -4181,14 +4184,14 @@
       <c r="S8" s="10"/>
       <c r="T8" s="17"/>
       <c r="U8" s="34" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="W8" s="13"/>
       <c r="Z8" s="13"/>
       <c r="AA8" s="14"/>
       <c r="AE8" s="14"/>
     </row>
-    <row r="9" spans="1:33" s="5" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="5" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -4196,16 +4199,16 @@
         <v>35</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>45</v>
+        <v>451</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9" s="7" t="b">
         <v>0</v>
@@ -4230,7 +4233,7 @@
       <c r="S9" s="10"/>
       <c r="T9" s="17"/>
       <c r="U9" s="34" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="W9" s="13"/>
       <c r="Z9" s="13"/>
@@ -4242,10 +4245,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>30</v>
@@ -4271,7 +4274,7 @@
         <v>overview</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="P10" s="34"/>
       <c r="Q10" s="17"/>
@@ -4281,7 +4284,7 @@
       </c>
       <c r="T10" s="17"/>
       <c r="U10" s="34" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="W10" s="13"/>
       <c r="Z10" s="13"/>
@@ -4293,16 +4296,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="b">
         <v>0</v>
@@ -4316,14 +4319,14 @@
         <v>oauth20-and-fhir-api</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P11" s="34"/>
       <c r="S11" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="U11" s="34" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="AA11" s="14"/>
       <c r="AB11" s="5"/>
@@ -4338,10 +4341,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>30</v>
@@ -4361,14 +4364,14 @@
         <v>patient-everything-exchange-via-alternate-secure-transport</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P12" s="34"/>
       <c r="S12" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="U12" s="34" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AA12" s="14"/>
       <c r="AB12" s="5"/>
@@ -4383,10 +4386,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>30</v>
@@ -4406,16 +4409,16 @@
         <v>provenance</v>
       </c>
       <c r="O13" s="33" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P13" s="34" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="S13" s="10" t="s">
         <v>32</v>
       </c>
       <c r="U13" s="34" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="Z13" s="15"/>
       <c r="AA13" s="14"/>
@@ -4431,10 +4434,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>30</v>
@@ -4454,16 +4457,16 @@
         <v>provenance</v>
       </c>
       <c r="O14" s="33" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P14" s="34" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="S14" s="10" t="s">
         <v>32</v>
       </c>
       <c r="U14" s="34" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="34" x14ac:dyDescent="0.2">
@@ -4471,10 +4474,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>30</v>
@@ -4494,7 +4497,7 @@
         <v>implementation-hierarchy-and-priorities</v>
       </c>
       <c r="O15" s="33" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P15" s="34"/>
       <c r="S15" s="10" t="s">
@@ -4507,10 +4510,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>30</v>
@@ -4530,7 +4533,7 @@
         <v>pdex-data-payloads</v>
       </c>
       <c r="O16" s="33" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P16" s="34"/>
       <c r="S16" s="10" t="s">
@@ -4543,10 +4546,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>30</v>
@@ -4566,7 +4569,7 @@
         <v>pdex-data-payloads</v>
       </c>
       <c r="O17" s="33" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P17" s="34"/>
       <c r="S17" s="10" t="s">
@@ -4579,10 +4582,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>30</v>
@@ -4607,7 +4610,7 @@
         <v>32</v>
       </c>
       <c r="U18" s="34" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="102" x14ac:dyDescent="0.2">
@@ -4615,10 +4618,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>30</v>
@@ -4643,7 +4646,7 @@
         <v>32</v>
       </c>
       <c r="U19" s="34" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -4651,10 +4654,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>30</v>
@@ -4685,10 +4688,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>30</v>
@@ -4716,10 +4719,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>30</v>
@@ -4747,10 +4750,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>30</v>
@@ -4778,10 +4781,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>30</v>
@@ -4809,13 +4812,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>31</v>
@@ -4840,10 +4843,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>30</v>
@@ -4871,10 +4874,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>30</v>
@@ -4902,16 +4905,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G28" s="7" t="b">
         <v>0</v>
@@ -4933,16 +4936,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G29" s="7" t="b">
         <v>0</v>
@@ -4960,19 +4963,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="G30" s="7" t="b">
         <v>0</v>
@@ -4986,13 +4989,13 @@
         <v>member-match-with-consent</v>
       </c>
       <c r="O30" s="33" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P30" s="34" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="U30" s="34" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="85" x14ac:dyDescent="0.2">
@@ -5000,10 +5003,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>30</v>
@@ -5012,7 +5015,7 @@
         <v>31</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G31" s="7" t="b">
         <v>0</v>
@@ -5026,13 +5029,13 @@
         <v>member-match-with-consent</v>
       </c>
       <c r="O31" s="33" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P31" s="34" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="U31" s="34" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="51" x14ac:dyDescent="0.2">
@@ -5040,10 +5043,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>30</v>
@@ -5067,10 +5070,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="32" t="s">
         <v>93</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>99</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>30</v>
@@ -5094,10 +5097,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>30</v>
@@ -5121,10 +5124,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>30</v>
@@ -5148,10 +5151,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>30</v>
@@ -5163,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M36" s="49" t="str" cm="1">
         <f t="array" ref="M36">PAGE_NAME(B36)</f>
@@ -5178,10 +5181,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>30</v>
@@ -5193,7 +5196,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M37" s="49" t="str" cm="1">
         <f t="array" ref="M37">PAGE_NAME(B37)</f>
@@ -5208,10 +5211,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>30</v>
@@ -5223,7 +5226,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="M38" s="49" t="str" cm="1">
         <f t="array" ref="M38">PAGE_NAME(B38)</f>
@@ -5238,13 +5241,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>31</v>
@@ -5253,7 +5256,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="M39" s="49" t="str" cm="1">
         <f t="array" ref="M39">PAGE_NAME(B39)</f>
@@ -5264,10 +5267,10 @@
         <v>the-member-match-operation</v>
       </c>
       <c r="O39" s="33" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="P39" s="34" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="U39" s="34"/>
     </row>
@@ -5276,10 +5279,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>30</v>
@@ -5291,7 +5294,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="M40" s="49" t="str" cm="1">
         <f t="array" ref="M40">PAGE_NAME(B40)</f>
@@ -5302,10 +5305,10 @@
         <v>the-member-match-operation</v>
       </c>
       <c r="O40" s="33" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="P40" s="34" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="U40" s="34"/>
     </row>
@@ -5314,10 +5317,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>30</v>
@@ -5341,16 +5344,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G42" s="7" t="b">
         <v>0</v>
@@ -5364,7 +5367,7 @@
         <v>data-retrieval-methods</v>
       </c>
       <c r="O42" s="33" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="P42" s="34"/>
       <c r="U42" s="34"/>
@@ -5374,10 +5377,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>30</v>
@@ -5397,11 +5400,11 @@
         <v>data-retrieval-methods</v>
       </c>
       <c r="O43" s="33" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="P43" s="34"/>
       <c r="U43" s="34" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="34" x14ac:dyDescent="0.2">
@@ -5409,10 +5412,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>30</v>
@@ -5432,7 +5435,7 @@
         <v>query-all-clinical-resources-individually</v>
       </c>
       <c r="O44" s="33" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="P44" s="34"/>
       <c r="U44" s="34"/>
@@ -5442,10 +5445,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>30</v>
@@ -5469,10 +5472,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>30</v>
@@ -5492,7 +5495,7 @@
         <v>constraining-data-based-upon-permissions-of-the-requestor</v>
       </c>
       <c r="O46" s="33" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="P46" s="34"/>
       <c r="U46" s="34"/>
@@ -5502,13 +5505,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>31</v>
@@ -5525,10 +5528,10 @@
         <v>everything-operation</v>
       </c>
       <c r="O47" s="33" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="P47" s="34" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="U47" s="34"/>
     </row>
@@ -5537,19 +5540,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G48" s="7" t="b">
         <v>0</v>
@@ -5563,22 +5566,24 @@
         <v>bulk-fhir-asynchronous-protocols</v>
       </c>
       <c r="O48" s="33" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="P48" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="U48" s="34"/>
+        <v>129</v>
+      </c>
+      <c r="U48" s="34" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="49" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>48</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>30</v>
@@ -5598,13 +5603,13 @@
         <v>data-mapping</v>
       </c>
       <c r="O49" s="33" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="P49" s="34" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="U49" s="34" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="68" x14ac:dyDescent="0.2">
@@ -5612,10 +5617,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="52" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>30</v>
@@ -5627,7 +5632,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M50" s="49" t="str" cm="1">
         <f t="array" ref="M50">PAGE_NAME(B50)</f>
@@ -5638,10 +5643,10 @@
         <v>data-mapping</v>
       </c>
       <c r="O50" s="35" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="P50" s="34" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="U50" s="34"/>
     </row>
@@ -5650,10 +5655,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>30</v>
@@ -5665,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="M51" s="49" t="str" cm="1">
         <f t="array" ref="M51">PAGE_NAME(B51)</f>
@@ -5676,13 +5681,13 @@
         <v>providing-data-in-sub-element-fields</v>
       </c>
       <c r="O51" s="33" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P51" s="34" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="U51" s="34" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="68" x14ac:dyDescent="0.2">
@@ -5690,10 +5695,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>30</v>
@@ -5705,7 +5710,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M52" s="49" t="str" cm="1">
         <f t="array" ref="M52">PAGE_NAME(B52)</f>
@@ -5716,15 +5721,15 @@
         <v>providing-data-in-sub-element-fields</v>
       </c>
       <c r="O52" s="33" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P52" s="34" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="R52" s="17"/>
       <c r="S52" s="17"/>
       <c r="U52" s="34" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="51" x14ac:dyDescent="0.2">
@@ -5732,10 +5737,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>30</v>
@@ -5747,7 +5752,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M53" s="49" t="str" cm="1">
         <f t="array" ref="M53">PAGE_NAME(B53)</f>
@@ -5758,15 +5763,15 @@
         <v>providing-data-in-sub-element-fields</v>
       </c>
       <c r="O53" s="33" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P53" s="34" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="R53" s="17"/>
       <c r="S53" s="17"/>
       <c r="U53" s="34" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="136" x14ac:dyDescent="0.2">
@@ -5774,22 +5779,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G54" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="M54" s="49" t="str" cm="1">
         <f t="array" ref="M54">PAGE_NAME(B54)</f>
@@ -5800,13 +5805,13 @@
         <v>providing-data-in-sub-element-fields</v>
       </c>
       <c r="O54" s="33" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P54" s="34" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="U54" s="34" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="68" x14ac:dyDescent="0.2">
@@ -5814,13 +5819,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E55" s="55" t="s">
         <v>31</v>
@@ -5829,7 +5834,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M55" s="49" t="str" cm="1">
         <f t="array" ref="M55">PAGE_NAME(B55)</f>
@@ -5848,13 +5853,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E56" s="55" t="s">
         <v>31</v>
@@ -5863,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M56" s="49" t="str" cm="1">
         <f t="array" ref="M56">PAGE_NAME(B56)</f>
@@ -5878,10 +5883,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>30</v>
@@ -5909,19 +5914,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G58" s="7" t="b">
         <v>0</v>
@@ -5935,10 +5940,10 @@
         <v>bulk-fhir-asynchronous-protocols</v>
       </c>
       <c r="O58" s="33" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="P58" s="34" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="U58" s="34"/>
     </row>
@@ -5947,19 +5952,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="G59" s="7" t="b">
         <v>0</v>
@@ -5973,10 +5978,10 @@
         <v>bulk-fhir-asynchronous-protocols</v>
       </c>
       <c r="O59" s="33" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="P59" s="34" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="U59" s="34"/>
     </row>
@@ -5985,10 +5990,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>30</v>
@@ -6002,11 +6007,11 @@
       </c>
       <c r="H60" s="17"/>
       <c r="I60" s="47" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J60" s="47"/>
       <c r="K60" s="47" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L60" s="47"/>
       <c r="M60" s="49" t="str" cm="1">
@@ -6024,7 +6029,7 @@
       <c r="S60" s="17"/>
       <c r="T60" s="17"/>
       <c r="U60" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="61" spans="1:21" s="13" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -6032,13 +6037,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>31</v>
@@ -6048,14 +6053,14 @@
         <v>1</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I61" s="47" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J61" s="47"/>
       <c r="K61" s="47" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L61" s="47"/>
       <c r="M61" s="49" t="str" cm="1">
@@ -6073,7 +6078,7 @@
       <c r="S61" s="17"/>
       <c r="T61" s="17"/>
       <c r="U61" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="62" spans="1:21" s="13" customFormat="1" ht="119" x14ac:dyDescent="0.2">
@@ -6081,16 +6086,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8" t="b">
@@ -6098,11 +6103,11 @@
       </c>
       <c r="H62" s="17"/>
       <c r="I62" s="47" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J62" s="47"/>
       <c r="K62" s="47" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L62" s="47"/>
       <c r="M62" s="49" t="str" cm="1">
@@ -6120,7 +6125,7 @@
       <c r="S62" s="17"/>
       <c r="T62" s="17"/>
       <c r="U62" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="63" spans="1:21" s="13" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -6128,10 +6133,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>30</v>
@@ -6144,14 +6149,14 @@
         <v>1</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="I63" s="47" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J63" s="47"/>
       <c r="K63" s="47" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L63" s="47"/>
       <c r="M63" s="49" t="str" cm="1">
@@ -6169,7 +6174,7 @@
       <c r="S63" s="17"/>
       <c r="T63" s="17"/>
       <c r="U63" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="64" spans="1:21" s="13" customFormat="1" ht="272" x14ac:dyDescent="0.2">
@@ -6177,10 +6182,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>30</v>
@@ -6193,14 +6198,14 @@
         <v>1</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="I64" s="47" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J64" s="47"/>
       <c r="K64" s="47" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L64" s="47"/>
       <c r="M64" s="49" t="str" cm="1">
@@ -6218,7 +6223,7 @@
       <c r="S64" s="17"/>
       <c r="T64" s="17"/>
       <c r="U64" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="65" spans="1:21" s="13" customFormat="1" ht="136" x14ac:dyDescent="0.2">
@@ -6226,30 +6231,30 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="I65" s="47" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J65" s="47"/>
       <c r="K65" s="47" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L65" s="47"/>
       <c r="M65" s="49" t="str" cm="1">
@@ -6267,7 +6272,7 @@
       <c r="S65" s="17"/>
       <c r="T65" s="17"/>
       <c r="U65" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="66" spans="1:21" s="13" customFormat="1" ht="153" x14ac:dyDescent="0.2">
@@ -6275,10 +6280,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>30</v>
@@ -6291,14 +6296,14 @@
         <v>1</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="I66" s="47" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J66" s="47"/>
       <c r="K66" s="47" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L66" s="47"/>
       <c r="M66" s="49" t="str" cm="1">
@@ -6316,7 +6321,7 @@
       <c r="S66" s="17"/>
       <c r="T66" s="17"/>
       <c r="U66" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="67" spans="1:21" s="13" customFormat="1" ht="119" x14ac:dyDescent="0.2">
@@ -6324,30 +6329,30 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="I67" s="47" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J67" s="47"/>
       <c r="K67" s="47" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L67" s="47"/>
       <c r="M67" s="49" t="str" cm="1">
@@ -6365,7 +6370,7 @@
       <c r="S67" s="17"/>
       <c r="T67" s="17"/>
       <c r="U67" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="68" spans="1:21" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -6373,13 +6378,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>31</v>
@@ -6390,11 +6395,11 @@
       </c>
       <c r="H68" s="17"/>
       <c r="I68" s="47" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J68" s="47"/>
       <c r="K68" s="47" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L68" s="47"/>
       <c r="M68" s="49" t="str" cm="1">
@@ -6412,7 +6417,7 @@
       <c r="S68" s="17"/>
       <c r="T68" s="17"/>
       <c r="U68" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="69" spans="1:21" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -6420,30 +6425,30 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="I69" s="47" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J69" s="47"/>
       <c r="K69" s="47" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L69" s="47"/>
       <c r="M69" s="49" t="str" cm="1">
@@ -6461,7 +6466,7 @@
       <c r="S69" s="17"/>
       <c r="T69" s="17"/>
       <c r="U69" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="70" spans="1:21" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -6469,13 +6474,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>31</v>
@@ -6485,16 +6490,16 @@
         <v>1</v>
       </c>
       <c r="H70" s="17" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="I70" s="47" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="J70" s="47" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K70" s="47" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L70" s="47"/>
       <c r="M70" s="49" t="str" cm="1">
@@ -6512,7 +6517,7 @@
       <c r="S70" s="17"/>
       <c r="T70" s="17"/>
       <c r="U70" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="71" spans="1:21" s="13" customFormat="1" ht="136" x14ac:dyDescent="0.2">
@@ -6520,13 +6525,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>31</v>
@@ -6536,14 +6541,14 @@
         <v>1</v>
       </c>
       <c r="H71" s="17" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="I71" s="47" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J71" s="47"/>
       <c r="K71" s="47" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L71" s="47"/>
       <c r="M71" s="49" t="str" cm="1">
@@ -6561,7 +6566,7 @@
       <c r="S71" s="17"/>
       <c r="T71" s="17"/>
       <c r="U71" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="72" spans="1:21" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -6569,10 +6574,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>30</v>
@@ -6585,7 +6590,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="I72" s="47"/>
       <c r="J72" s="47"/>
@@ -6606,7 +6611,7 @@
       <c r="S72" s="17"/>
       <c r="T72" s="17"/>
       <c r="U72" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="73" spans="1:21" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -6614,16 +6619,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
@@ -6647,7 +6652,7 @@
       <c r="S73" s="17"/>
       <c r="T73" s="17"/>
       <c r="U73" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="74" spans="1:21" s="13" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -6655,13 +6660,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>31</v>
@@ -6688,7 +6693,7 @@
       <c r="S74" s="17"/>
       <c r="T74" s="17"/>
       <c r="U74" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="75" spans="1:21" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -6696,13 +6701,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>31</v>
@@ -6729,7 +6734,7 @@
       <c r="S75" s="17"/>
       <c r="T75" s="17"/>
       <c r="U75" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="76" spans="1:21" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -6737,16 +6742,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
@@ -6770,7 +6775,7 @@
       <c r="S76" s="17"/>
       <c r="T76" s="17"/>
       <c r="U76" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="77" spans="1:21" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -6778,16 +6783,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="56" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
@@ -6811,7 +6816,7 @@
       <c r="S77" s="17"/>
       <c r="T77" s="17"/>
       <c r="U77" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="78" spans="1:21" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -6819,10 +6824,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="56" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>30</v>
@@ -6852,7 +6857,7 @@
       <c r="S78" s="17"/>
       <c r="T78" s="17"/>
       <c r="U78" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="79" spans="1:21" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -6860,16 +6865,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="56" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
@@ -6893,7 +6898,7 @@
       <c r="S79" s="17"/>
       <c r="T79" s="17"/>
       <c r="U79" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="80" spans="1:21" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -6901,13 +6906,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="56" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>31</v>
@@ -6934,7 +6939,7 @@
       <c r="S80" s="17"/>
       <c r="T80" s="17"/>
       <c r="U80" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="81" spans="1:21" s="13" customFormat="1" ht="119" x14ac:dyDescent="0.2">
@@ -6942,10 +6947,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="56" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>30</v>
@@ -6975,7 +6980,7 @@
       <c r="S81" s="17"/>
       <c r="T81" s="17"/>
       <c r="U81" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="82" spans="1:21" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -6983,10 +6988,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="56" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>30</v>
@@ -7016,7 +7021,7 @@
       <c r="S82" s="17"/>
       <c r="T82" s="17"/>
       <c r="U82" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="83" spans="1:21" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -7024,10 +7029,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="56" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>30</v>
@@ -7057,7 +7062,7 @@
       <c r="S83" s="17"/>
       <c r="T83" s="17"/>
       <c r="U83" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="84" spans="1:21" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -7065,10 +7070,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="56" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>30</v>
@@ -7098,7 +7103,7 @@
       <c r="S84" s="17"/>
       <c r="T84" s="17"/>
       <c r="U84" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="85" spans="1:21" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -7106,16 +7111,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="56" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
@@ -7139,7 +7144,7 @@
       <c r="S85" s="17"/>
       <c r="T85" s="17"/>
       <c r="U85" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="86" spans="1:21" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -7147,16 +7152,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="56" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
@@ -7180,7 +7185,7 @@
       <c r="S86" s="17"/>
       <c r="T86" s="17"/>
       <c r="U86" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="87" spans="1:21" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -7188,10 +7193,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>429</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>435</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>30</v>
@@ -7221,7 +7226,7 @@
       <c r="S87" s="17"/>
       <c r="T87" s="17"/>
       <c r="U87" s="17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="88" spans="1:21" ht="17" x14ac:dyDescent="0.2">
@@ -9967,6 +9972,7 @@
     <hyperlink ref="B82" r:id="rId54" location="member-matching-logic" xr:uid="{0CBCA892-CE78-0A4E-A324-53DD96994B75}"/>
     <hyperlink ref="B81" r:id="rId55" location="member-matching-logic" xr:uid="{949BBBD5-BA34-224C-A4BC-FAB033759AD2}"/>
     <hyperlink ref="B80" r:id="rId56" location="member-matching-logic" xr:uid="{F634B3F7-D17D-E045-BC3D-ECCA13710EB9}"/>
+    <hyperlink ref="B67" r:id="rId57" xr:uid="{87610AD3-F680-F445-825C-0D39F9CD8A85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -10008,13 +10014,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>27</v>
@@ -10022,1984 +10028,1984 @@
     </row>
     <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="204" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="36" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B19" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B22" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="36" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B27" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B28" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="36" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B29" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B32" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="36" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B33" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B34" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="36" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B35" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="36" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B36" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="36" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B37" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="36" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="36" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B39" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="36" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B40" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="36" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="36" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="36" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="36" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B44" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="36" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B45" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C45" s="53" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="36" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B46" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="36" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C47" s="54" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="36" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B48" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C48" s="54" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A49" s="36" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="36" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B50" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="36" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B51" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="36" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B52" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="36" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B53" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="36" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B54" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="36" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B55" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="36" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B56" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="36" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B57" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="36" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B58" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="36" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="36" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B60" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="36" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B61" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="36" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B62" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="36" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B63" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="36" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B64" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="36" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B65" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="36" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B66" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="36" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="36" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B68" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="36" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B69" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="36" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="36" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B71" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="36" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B72" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="36" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="36" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B74" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="36" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B75" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="36" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B76" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="36" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B77" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="36" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B78" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="36" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B79" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="36" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B80" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="36" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B81" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="36" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B82" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="36" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="36" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="36" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B85" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="36" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="36" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B87" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="36" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="36" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B89" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="36" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B90" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="36" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B91" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="36" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B92" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="36" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B93" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="36" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B94" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B95" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="36" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B96" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="36" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B97" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="36" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B98" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="36" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B99" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="36" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B100" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="36" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B101" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="36" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B102" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="36" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B103" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="36" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B104" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="36" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B105" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="36" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B106" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="36" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B107" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="36" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B108" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="36" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B109" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="36" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B110" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="36" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B111" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="36" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B112" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="36" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B113" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="36" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B114" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="36" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B115" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="36" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B116" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="36" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B117" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="36" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B118" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="36" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B119" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="36" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B120" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="36" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B121" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="36" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B122" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="36" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B123" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="36" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B124" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="36" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B125" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="36" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B126" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="36" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B127" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="36" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B128" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="36" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B129" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="36" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B130" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="36" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B131" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="36" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B132" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="36" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B133" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="36" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B134" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="36" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B135" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="36" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B136" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="36" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B137" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="36" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B138" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="36" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B139" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="36" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="36" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B141" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="36" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B142" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="36" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B143" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="36" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B144" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="36" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B145" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="36" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B146" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="36" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B147" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="36" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B148" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="36" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B149" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="36" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B150" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="36" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B151" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="36" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B152" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="36" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B153" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="36" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B154" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="36" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B155" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="36" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B156" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="36" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B157" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="36" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B158" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="36" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B159" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="36" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B160" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="36" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B161" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="36" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B162" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="36" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B163" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="36" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B164" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="36" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B165" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="36" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B166" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="36" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B167" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="36" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B168" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="36" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B169" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="36" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B170" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="36" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B171" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="36" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B172" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="36" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B173" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="36" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B174" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="36" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B175" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="36" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B176" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="36" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B177" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="36" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B178" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="36" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B179" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="36" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B180" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="36" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B181" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="36" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B182" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -12206,7 +12212,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B1" s="62"/>
     </row>
@@ -12216,79 +12222,79 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -12317,19 +12323,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -12337,13 +12343,13 @@
         <v>0.1</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E2" s="45">
         <v>45553</v>
@@ -12354,13 +12360,13 @@
         <v>0.2</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E3" s="45">
         <v>45553</v>
@@ -12387,13 +12393,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D1" t="s">
         <v>15</v>
@@ -12407,55 +12413,55 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -12464,6 +12470,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC335ED7BB179244BF94A0DFE64544DC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a0f66abe5d2a0564332877ab55d3f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eebd8b74-b9de-41b2-9247-c010c4973c2b" xmlns:ns3="b7009bbd-f938-489b-a530-f05273710fff" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec7ca2ee893ff8a0f61d4046c6461645" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
@@ -12717,19 +12736,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12740,6 +12746,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
+    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CECB8FC-6CE1-4319-808E-A7979CBF30F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12759,17 +12776,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
-    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
   <ds:schemaRefs>

--- a/lib/davinci_pdex_test_kit/requirements/hl7.fhir.us.davinci-pdex_2.0.0_reqs.xlsx
+++ b/lib/davinci_pdex_test_kit/requirements/hl7.fhir.us.davinci-pdex_2.0.0_reqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/Inferno/source/davinci-pdex-test-kit/lib/davinci_pdex_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B0E275-D653-9643-B3E2-079BD2ED8357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280338B7-6D04-144D-A3FB-A1257E26A6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="1000" windowWidth="34300" windowHeight="19940" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="20" yWindow="960" windowWidth="34300" windowHeight="19940" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="10" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="468">
   <si>
     <r>
       <rPr>
@@ -800,9 +800,6 @@
     <t>Conformance*</t>
   </si>
   <si>
-    <t>Actor*</t>
-  </si>
-  <si>
     <t>Sub-Requirement(s)</t>
   </si>
   <si>
@@ -875,15 +872,9 @@
     <t>https://hl7.org/fhir/us/davinci-pdex/STU2/index.html#must-support</t>
   </si>
   <si>
-    <t>hl7.fhir.us.core_3.1.1@75,77,78,80</t>
-  </si>
-  <si>
     <t>Client</t>
   </si>
   <si>
-    <t>hl7.fhir.us.core_3.1.1@76,79</t>
-  </si>
-  <si>
     <t>Intrepretted informal language as a formal requirement</t>
   </si>
   <si>
@@ -896,24 +887,15 @@
     <t>3</t>
   </si>
   <si>
-    <t>No real content, we only test the FHIR portion</t>
-  </si>
-  <si>
     <t>https://hl7.org/fhir/us/davinci-pdex/STU2/overview.html#oauth20-or-smart-on-fhir-member-authorized-exchange,https://hl7.org/fhir/us/davinci-pdex/STU2/member-authorizedoauth2exchange.html,https://hl7.org/fhir/us/davinci-pdex/STU2/pdeximplementationactorsinteractionsdatapayloadsandmethods.html#oauth20-and-fhir-api</t>
   </si>
   <si>
-    <t>The member SHALL authenticate using [and the server SHALL accept only] credentials that have been issued by or are recognized and accepted by the Health Plan. These are typically the member’s customer portal credentials for accessing the health plan.</t>
-  </si>
-  <si>
     <t>3.1.2</t>
   </si>
   <si>
     <t>Patient Access API</t>
   </si>
   <si>
-    <t>could use attestation to test</t>
-  </si>
-  <si>
     <t>https://hl7.org/fhir/us/davinci-pdex/STU2/overview.html#patient-everything-exchange-via-alternate-secure-transport</t>
   </si>
   <si>
@@ -926,9 +908,6 @@
     <t>Patient Access API?</t>
   </si>
   <si>
-    <t>untestable without specific knowing and being able to access and interpret these restrictions.</t>
-  </si>
-  <si>
     <t>https://hl7.org/fhir/us/davinci-pdex/STU2/overview.html#provenance</t>
   </si>
   <si>
@@ -945,9 +924,6 @@
   </si>
   <si>
     <t>Health Plans SHALL provide Provenance records [for each non-Provenance instance] that, at a minimum, indicate that they are playing the role of Transmitter of the data in any PDex information exchange.</t>
-  </si>
-  <si>
-    <t>Testable!</t>
   </si>
   <si>
     <t>https://hl7.org/fhir/us/davinci-pdex/STU2/introduction.html#implementation-hierarchy-and-priorities</t>
@@ -1195,9 +1171,6 @@
   </si>
   <si>
     <t>6.3.0.0.1</t>
-  </si>
-  <si>
-    <t>Just conformance</t>
   </si>
   <si>
     <t>For a field specified as MUST SUPPORT and the cardinality is 0.., the Health Plan SHALL be capable of populating the field and do so if the relevant data exists.</t>
@@ -2774,12 +2747,84 @@
   <si>
     <t>NOTE: subrequirements may be too broad based on other references to bulk data in this IG.</t>
   </si>
+  <si>
+    <t>Actors*</t>
+  </si>
+  <si>
+    <t>The member SHALL authenticate using credentials that have been issued by or are recognized and accepted by the Health Plan. These are typically the member’s customer portal credentials for accessing the health plan.</t>
+  </si>
+  <si>
+    <t>Attestation</t>
+  </si>
+  <si>
+    <t>Profile conformance</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/us/core/STU3.1.1/general-guidance.html#must-support</t>
+  </si>
+  <si>
+    <t>For querying and reading US Core Profiles, Must Support on any profile data element **SHALL** be interpreted as follows…:
+US Core Responders **SHALL** be capable of populating all data elements as part of the query results specified by the [US Core Server Capability Statement](https://hl7.org/fhir/us/core/STU3.1.1/CapabilityStatement-us-core-server.html).</t>
+  </si>
+  <si>
+    <t>2.2.0.2</t>
+  </si>
+  <si>
+    <t>For querying and reading US Core Profiles, Must Support on any profile data element **SHALL** be interpreted as follows…:
+US Core Requestors **SHALL** be capable of processing resource instances containing the data elements without generating an error or causing the application to fail.</t>
+  </si>
+  <si>
+    <t>For querying and reading US Core Profiles, Must Support on any profile data element **SHALL** be interpreted as follows…:
+In situations where information on a particular data element is not present and the reason for absence is unknown, US Core Responders SHALL NOT include the data elements in the resource instance returned as part of the query results.</t>
+  </si>
+  <si>
+    <t>For querying and reading US Core Profiles, Must Support on any profile data element **SHALL** be interpreted as follows…:
+When information on a particular data element is not present, and the reason for absence is unknown, US Core Responders **SHALL NOT** include the data elements in the resource instance returned as part of the query results.</t>
+  </si>
+  <si>
+    <t>When information on a particular data element is not present, and the reason for absence is unknown,</t>
+  </si>
+  <si>
+    <t>For querying and reading US Core Profiles, Must Support on any profile data element **SHALL** be interpreted as follows…:
+When querying US Core Responders, US Core Requestors **SHALL** interpret missing data elements within resource instances as data not present in the US Core Responder’s system.</t>
+  </si>
+  <si>
+    <t>For querying and reading US Core Profiles, Must Support on any profile data element **SHALL** be interpreted as follows…:
+In situations where information on a particular data element is missing and the US Core Responder knows the precise reason for the absence of data, US Core Responders **SHALL** send the reason for the missing information using values (such as nullFlavors) from the value set where they exist or using the dataAbsentReason extension.</t>
+  </si>
+  <si>
+    <t>In cases where information on a specific data element is missing, and the US Core Responder knows the precise reason for the absence of data (other than suppressed data)</t>
+  </si>
+  <si>
+    <t>hl7.fhir.us.davinci-pdex_2.0.0@87,89,90,92</t>
+  </si>
+  <si>
+    <t>hl7.fhir.us.davinci-pdex_2.0.0@88,91</t>
+  </si>
+  <si>
+    <t>NOTE: Extracted from US Core 3.1.1 into here because the full US Core 3.1.1 is not being extracted but there is an explicit reference here. This is the same as the corresponding US Core v7@75 requirement</t>
+  </si>
+  <si>
+    <t>NOTE: Extracted from US Core 3.1.1 into here because the full US Core 3.1.1 is not being extracted but there is an explicit reference here. This is the same as the corresponding US Core v7@76 requirement</t>
+  </si>
+  <si>
+    <t>NOTE: Extracted from US Core 3.1.1 into here because the full US Core 3.1.1 is not being extracted but there is an explicit reference here. This is the same as the corresponding US Core v7@77 requirement</t>
+  </si>
+  <si>
+    <t>NOTE: Extracted from US Core 3.1.1 into here because the full US Core 3.1.1 is not being extracted but there is an explicit reference here. This is the same as the corresponding US Core v7@79 requirement</t>
+  </si>
+  <si>
+    <t>NOTE: Extracted from US Core 3.1.1 into here because the full US Core 3.1.1 is not being extracted but there is an explicit reference here. This is the same as the corresponding US Core v7@80 requirement</t>
+  </si>
+  <si>
+    <t>NOTE: Extracted from US Core 3.1.1 into here because the full US Core 3.1.1 is not being extracted but there is an explicit reference here. This is different from the corresponding US Core v7@80 requirement</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2945,6 +2990,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -3014,7 +3072,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -3188,12 +3246,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3340,6 +3411,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3712,7 +3807,7 @@
     </row>
     <row r="4" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="59" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
@@ -3766,8 +3861,8 @@
   <dimension ref="A1:AG353"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U93" sqref="U93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3813,55 +3908,55 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="J1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="K1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="L1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="M1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="N1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="V1" s="6"/>
       <c r="AA1" s="6"/>
@@ -3871,16 +3966,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="b">
@@ -3898,7 +3993,7 @@
         <v>1.3</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:33" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -3906,16 +4001,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="7" t="b">
@@ -3935,13 +4030,13 @@
         <v>intellectual-property</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P3" s="34"/>
       <c r="Q3" s="17"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T3" s="17"/>
       <c r="U3" s="34"/>
@@ -3955,19 +4050,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>36</v>
+        <v>460</v>
       </c>
       <c r="G4" s="7" t="b">
         <v>0</v>
@@ -4002,19 +4097,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>449</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="F5" s="8" t="s">
-        <v>38</v>
+        <v>461</v>
       </c>
       <c r="G5" s="7" t="b">
         <v>0</v>
@@ -4049,19 +4144,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="F6" s="8" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G6" s="7" t="b">
         <v>0</v>
@@ -4086,7 +4181,7 @@
       <c r="S6" s="10"/>
       <c r="T6" s="17"/>
       <c r="U6" s="34" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="W6" s="13"/>
       <c r="Z6" s="13"/>
@@ -4098,19 +4193,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>444</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="F7" s="8" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="G7" s="7" t="b">
         <v>0</v>
@@ -4135,7 +4230,7 @@
       <c r="S7" s="10"/>
       <c r="T7" s="17"/>
       <c r="U7" s="34" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="W7" s="13"/>
       <c r="Z7" s="13"/>
@@ -4147,19 +4242,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="F8" s="8" t="s">
-        <v>36</v>
+        <v>460</v>
       </c>
       <c r="G8" s="7" t="b">
         <v>0</v>
@@ -4184,7 +4279,7 @@
       <c r="S8" s="10"/>
       <c r="T8" s="17"/>
       <c r="U8" s="34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W8" s="13"/>
       <c r="Z8" s="13"/>
@@ -4196,19 +4291,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>451</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>38</v>
+        <v>461</v>
       </c>
       <c r="G9" s="7" t="b">
         <v>0</v>
@@ -4233,7 +4328,7 @@
       <c r="S9" s="10"/>
       <c r="T9" s="17"/>
       <c r="U9" s="34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W9" s="13"/>
       <c r="Z9" s="13"/>
@@ -4245,16 +4340,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="7" t="b">
@@ -4274,38 +4369,36 @@
         <v>overview</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P10" s="34"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T10" s="17"/>
-      <c r="U10" s="34" t="s">
-        <v>43</v>
-      </c>
+      <c r="U10" s="34"/>
       <c r="W10" s="13"/>
       <c r="Z10" s="13"/>
       <c r="AA10" s="14"/>
       <c r="AE10" s="14"/>
     </row>
-    <row r="11" spans="1:33" ht="102" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>45</v>
+        <v>447</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="b">
         <v>0</v>
@@ -4319,15 +4412,16 @@
         <v>oauth20-and-fhir-api</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="P11" s="34"/>
+      <c r="R11" s="10" t="s">
+        <v>448</v>
+      </c>
       <c r="S11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="U11" s="34" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="U11" s="34"/>
       <c r="AA11" s="14"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
@@ -4341,16 +4435,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G12" s="7" t="b">
         <v>0</v>
@@ -4364,15 +4458,16 @@
         <v>patient-everything-exchange-via-alternate-secure-transport</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P12" s="34"/>
+      <c r="R12" s="10" t="s">
+        <v>448</v>
+      </c>
       <c r="S12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="U12" s="34" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="U12" s="34"/>
       <c r="AA12" s="14"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
@@ -4386,16 +4481,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G13" s="7" t="b">
         <v>0</v>
@@ -4409,17 +4504,18 @@
         <v>provenance</v>
       </c>
       <c r="O13" s="33" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="P13" s="34" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="U13" s="34" t="s">
-        <v>58</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="U13" s="34"/>
       <c r="Z13" s="15"/>
       <c r="AA13" s="14"/>
       <c r="AB13" s="5"/>
@@ -4434,16 +4530,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G14" s="7" t="b">
         <v>0</v>
@@ -4457,33 +4553,31 @@
         <v>provenance</v>
       </c>
       <c r="O14" s="33" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="P14" s="34" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="U14" s="34" t="s">
-        <v>60</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="U14" s="34"/>
     </row>
     <row r="15" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G15" s="7" t="b">
         <v>0</v>
@@ -4497,11 +4591,11 @@
         <v>implementation-hierarchy-and-priorities</v>
       </c>
       <c r="O15" s="33" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="P15" s="34"/>
       <c r="S15" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U15" s="34"/>
     </row>
@@ -4510,16 +4604,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G16" s="7" t="b">
         <v>0</v>
@@ -4533,11 +4627,11 @@
         <v>pdex-data-payloads</v>
       </c>
       <c r="O16" s="33" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="P16" s="34"/>
       <c r="S16" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U16" s="34"/>
     </row>
@@ -4546,16 +4640,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G17" s="7" t="b">
         <v>0</v>
@@ -4569,11 +4663,11 @@
         <v>pdex-data-payloads</v>
       </c>
       <c r="O17" s="33" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="P17" s="34"/>
       <c r="S17" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U17" s="34"/>
     </row>
@@ -4582,16 +4676,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G18" s="7" t="b">
         <v>0</v>
@@ -4607,10 +4701,10 @@
       <c r="O18" s="33"/>
       <c r="P18" s="34"/>
       <c r="S18" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U18" s="34" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="102" x14ac:dyDescent="0.2">
@@ -4618,16 +4712,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G19" s="7" t="b">
         <v>0</v>
@@ -4643,10 +4737,10 @@
       <c r="O19" s="33"/>
       <c r="P19" s="34"/>
       <c r="S19" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U19" s="34" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -4654,16 +4748,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G20" s="7" t="b">
         <v>0</v>
@@ -4679,7 +4773,7 @@
       <c r="O20" s="33"/>
       <c r="P20" s="34"/>
       <c r="S20" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U20" s="34"/>
     </row>
@@ -4688,16 +4782,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G21" s="7" t="b">
         <v>0</v>
@@ -4719,16 +4813,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G22" s="7" t="b">
         <v>0</v>
@@ -4750,16 +4844,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G23" s="7" t="b">
         <v>0</v>
@@ -4781,16 +4875,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G24" s="7" t="b">
         <v>0</v>
@@ -4812,16 +4906,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" s="7" t="b">
         <v>0</v>
@@ -4843,16 +4937,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G26" s="7" t="b">
         <v>0</v>
@@ -4874,16 +4968,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="32" t="s">
-        <v>83</v>
-      </c>
       <c r="D27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G27" s="7" t="b">
         <v>0</v>
@@ -4905,16 +4999,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G28" s="7" t="b">
         <v>0</v>
@@ -4936,16 +5030,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G29" s="7" t="b">
         <v>0</v>
@@ -4963,19 +5057,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="G30" s="7" t="b">
         <v>0</v>
@@ -4989,13 +5083,13 @@
         <v>member-match-with-consent</v>
       </c>
       <c r="O30" s="33" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="P30" s="34" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="U30" s="34" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="85" x14ac:dyDescent="0.2">
@@ -5003,19 +5097,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="F31" s="8" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="G31" s="7" t="b">
         <v>0</v>
@@ -5029,13 +5123,13 @@
         <v>member-match-with-consent</v>
       </c>
       <c r="O31" s="33" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="P31" s="34" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="U31" s="34" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="51" x14ac:dyDescent="0.2">
@@ -5043,16 +5137,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G32" s="7" t="b">
         <v>0</v>
@@ -5070,16 +5164,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G33" s="7" t="b">
         <v>0</v>
@@ -5097,16 +5191,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G34" s="7" t="b">
         <v>0</v>
@@ -5124,16 +5218,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="32" t="s">
-        <v>95</v>
-      </c>
       <c r="D35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G35" s="7" t="b">
         <v>0</v>
@@ -5151,22 +5245,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G36" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="M36" s="49" t="str" cm="1">
         <f t="array" ref="M36">PAGE_NAME(B36)</f>
@@ -5181,22 +5275,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G37" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="M37" s="49" t="str" cm="1">
         <f t="array" ref="M37">PAGE_NAME(B37)</f>
@@ -5211,22 +5305,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G38" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="M38" s="49" t="str" cm="1">
         <f t="array" ref="M38">PAGE_NAME(B38)</f>
@@ -5241,22 +5335,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="E39" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G39" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="M39" s="49" t="str" cm="1">
         <f t="array" ref="M39">PAGE_NAME(B39)</f>
@@ -5267,10 +5361,10 @@
         <v>the-member-match-operation</v>
       </c>
       <c r="O39" s="33" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="P39" s="34" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="U39" s="34"/>
     </row>
@@ -5279,22 +5373,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D40" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G40" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="M40" s="49" t="str" cm="1">
         <f t="array" ref="M40">PAGE_NAME(B40)</f>
@@ -5305,10 +5399,10 @@
         <v>the-member-match-operation</v>
       </c>
       <c r="O40" s="33" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="P40" s="34" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="U40" s="34"/>
     </row>
@@ -5317,16 +5411,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D41" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G41" s="7" t="b">
         <v>0</v>
@@ -5344,16 +5438,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G42" s="7" t="b">
         <v>0</v>
@@ -5367,7 +5461,7 @@
         <v>data-retrieval-methods</v>
       </c>
       <c r="O42" s="33" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="P42" s="34"/>
       <c r="U42" s="34"/>
@@ -5377,16 +5471,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G43" s="7" t="b">
         <v>0</v>
@@ -5400,11 +5494,11 @@
         <v>data-retrieval-methods</v>
       </c>
       <c r="O43" s="33" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="P43" s="34"/>
       <c r="U43" s="34" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="34" x14ac:dyDescent="0.2">
@@ -5412,16 +5506,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D44" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G44" s="7" t="b">
         <v>0</v>
@@ -5435,7 +5529,7 @@
         <v>query-all-clinical-resources-individually</v>
       </c>
       <c r="O44" s="33" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="P44" s="34"/>
       <c r="U44" s="34"/>
@@ -5445,16 +5539,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G45" s="7" t="b">
         <v>0</v>
@@ -5472,16 +5566,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D46" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G46" s="7" t="b">
         <v>0</v>
@@ -5495,7 +5589,7 @@
         <v>constraining-data-based-upon-permissions-of-the-requestor</v>
       </c>
       <c r="O46" s="33" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="P46" s="34"/>
       <c r="U46" s="34"/>
@@ -5505,16 +5599,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G47" s="7" t="b">
         <v>0</v>
@@ -5528,10 +5622,10 @@
         <v>everything-operation</v>
       </c>
       <c r="O47" s="33" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P47" s="34" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="U47" s="34"/>
     </row>
@@ -5540,19 +5634,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G48" s="7" t="b">
         <v>0</v>
@@ -5566,13 +5660,13 @@
         <v>bulk-fhir-asynchronous-protocols</v>
       </c>
       <c r="O48" s="33" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="P48" s="34" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="U48" s="34" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="51" x14ac:dyDescent="0.2">
@@ -5580,16 +5674,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D49" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G49" s="7" t="b">
         <v>0</v>
@@ -5603,36 +5697,37 @@
         <v>data-mapping</v>
       </c>
       <c r="O49" s="33" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="P49" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="U49" s="34" t="s">
-        <v>134</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="R49" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="U49" s="34"/>
     </row>
     <row r="50" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>49</v>
       </c>
       <c r="B50" s="52" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D50" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G50" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="M50" s="49" t="str" cm="1">
         <f t="array" ref="M50">PAGE_NAME(B50)</f>
@@ -5643,10 +5738,10 @@
         <v>data-mapping</v>
       </c>
       <c r="O50" s="35" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="P50" s="34" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="U50" s="34"/>
     </row>
@@ -5655,22 +5750,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D51" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G51" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M51" s="49" t="str" cm="1">
         <f t="array" ref="M51">PAGE_NAME(B51)</f>
@@ -5681,13 +5776,13 @@
         <v>providing-data-in-sub-element-fields</v>
       </c>
       <c r="O51" s="33" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="P51" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="U51" s="34" t="s">
-        <v>141</v>
+        <v>125</v>
+      </c>
+      <c r="R51" s="34" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="68" x14ac:dyDescent="0.2">
@@ -5695,22 +5790,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G52" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="M52" s="49" t="str" cm="1">
         <f t="array" ref="M52">PAGE_NAME(B52)</f>
@@ -5721,38 +5816,37 @@
         <v>providing-data-in-sub-element-fields</v>
       </c>
       <c r="O52" s="33" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="P52" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="R52" s="17"/>
+        <v>125</v>
+      </c>
+      <c r="R52" s="34" t="s">
+        <v>135</v>
+      </c>
       <c r="S52" s="17"/>
-      <c r="U52" s="34" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="53" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>52</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D53" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G53" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="M53" s="49" t="str" cm="1">
         <f t="array" ref="M53">PAGE_NAME(B53)</f>
@@ -5763,38 +5857,37 @@
         <v>providing-data-in-sub-element-fields</v>
       </c>
       <c r="O53" s="33" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="P53" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="R53" s="17"/>
+        <v>125</v>
+      </c>
+      <c r="R53" s="34" t="s">
+        <v>135</v>
+      </c>
       <c r="S53" s="17"/>
-      <c r="U53" s="34" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="54" spans="1:21" ht="136" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>53</v>
       </c>
       <c r="B54" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="C54" s="32" t="s">
-        <v>146</v>
-      </c>
       <c r="D54" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G54" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="M54" s="49" t="str" cm="1">
         <f t="array" ref="M54">PAGE_NAME(B54)</f>
@@ -5805,13 +5898,13 @@
         <v>providing-data-in-sub-element-fields</v>
       </c>
       <c r="O54" s="33" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="P54" s="34" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="U54" s="34" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="68" x14ac:dyDescent="0.2">
@@ -5819,22 +5912,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E55" s="55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G55" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="M55" s="49" t="str" cm="1">
         <f t="array" ref="M55">PAGE_NAME(B55)</f>
@@ -5853,22 +5946,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E56" s="55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G56" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="M56" s="49" t="str" cm="1">
         <f t="array" ref="M56">PAGE_NAME(B56)</f>
@@ -5883,16 +5976,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D57" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="55" t="s">
         <v>30</v>
-      </c>
-      <c r="E57" s="55" t="s">
-        <v>31</v>
       </c>
       <c r="G57" s="7" t="b">
         <v>0</v>
@@ -5914,19 +6007,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G58" s="7" t="b">
         <v>0</v>
@@ -5940,10 +6033,10 @@
         <v>bulk-fhir-asynchronous-protocols</v>
       </c>
       <c r="O58" s="33" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="P58" s="34" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="U58" s="34"/>
     </row>
@@ -5952,19 +6045,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="G59" s="7" t="b">
         <v>0</v>
@@ -5978,10 +6071,10 @@
         <v>bulk-fhir-asynchronous-protocols</v>
       </c>
       <c r="O59" s="33" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="P59" s="34" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="U59" s="34"/>
     </row>
@@ -5990,16 +6083,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D60" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8" t="b">
@@ -6007,11 +6100,11 @@
       </c>
       <c r="H60" s="17"/>
       <c r="I60" s="47" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="J60" s="47"/>
       <c r="K60" s="47" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="L60" s="47"/>
       <c r="M60" s="49" t="str" cm="1">
@@ -6029,7 +6122,7 @@
       <c r="S60" s="17"/>
       <c r="T60" s="17"/>
       <c r="U60" s="17" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="61" spans="1:21" s="13" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -6037,30 +6130,30 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="I61" s="47" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="J61" s="47"/>
       <c r="K61" s="47" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="L61" s="47"/>
       <c r="M61" s="49" t="str" cm="1">
@@ -6078,7 +6171,7 @@
       <c r="S61" s="17"/>
       <c r="T61" s="17"/>
       <c r="U61" s="17" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62" spans="1:21" s="13" customFormat="1" ht="119" x14ac:dyDescent="0.2">
@@ -6086,16 +6179,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8" t="b">
@@ -6103,11 +6196,11 @@
       </c>
       <c r="H62" s="17"/>
       <c r="I62" s="47" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="J62" s="47"/>
       <c r="K62" s="47" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="L62" s="47"/>
       <c r="M62" s="49" t="str" cm="1">
@@ -6125,7 +6218,7 @@
       <c r="S62" s="17"/>
       <c r="T62" s="17"/>
       <c r="U62" s="17" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:21" s="13" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -6133,30 +6226,30 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D63" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="F63" s="8"/>
       <c r="G63" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="I63" s="47" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="J63" s="47"/>
       <c r="K63" s="47" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="L63" s="47"/>
       <c r="M63" s="49" t="str" cm="1">
@@ -6174,7 +6267,7 @@
       <c r="S63" s="17"/>
       <c r="T63" s="17"/>
       <c r="U63" s="17" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="64" spans="1:21" s="13" customFormat="1" ht="272" x14ac:dyDescent="0.2">
@@ -6182,30 +6275,30 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D64" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="I64" s="47" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="J64" s="47"/>
       <c r="K64" s="47" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="L64" s="47"/>
       <c r="M64" s="49" t="str" cm="1">
@@ -6223,7 +6316,7 @@
       <c r="S64" s="17"/>
       <c r="T64" s="17"/>
       <c r="U64" s="17" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="65" spans="1:21" s="13" customFormat="1" ht="136" x14ac:dyDescent="0.2">
@@ -6231,30 +6324,30 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="I65" s="47" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="J65" s="47"/>
       <c r="K65" s="47" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="L65" s="47"/>
       <c r="M65" s="49" t="str" cm="1">
@@ -6272,7 +6365,7 @@
       <c r="S65" s="17"/>
       <c r="T65" s="17"/>
       <c r="U65" s="17" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="66" spans="1:21" s="13" customFormat="1" ht="153" x14ac:dyDescent="0.2">
@@ -6280,30 +6373,30 @@
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D66" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="I66" s="47" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="J66" s="47"/>
       <c r="K66" s="47" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="L66" s="47"/>
       <c r="M66" s="49" t="str" cm="1">
@@ -6321,7 +6414,7 @@
       <c r="S66" s="17"/>
       <c r="T66" s="17"/>
       <c r="U66" s="17" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="67" spans="1:21" s="13" customFormat="1" ht="119" x14ac:dyDescent="0.2">
@@ -6329,30 +6422,30 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="I67" s="47" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="J67" s="47"/>
       <c r="K67" s="47" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="L67" s="47"/>
       <c r="M67" s="49" t="str" cm="1">
@@ -6370,7 +6463,7 @@
       <c r="S67" s="17"/>
       <c r="T67" s="17"/>
       <c r="U67" s="17" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="68" spans="1:21" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -6378,16 +6471,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="8" t="b">
@@ -6395,11 +6488,11 @@
       </c>
       <c r="H68" s="17"/>
       <c r="I68" s="47" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="J68" s="47"/>
       <c r="K68" s="47" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="L68" s="47"/>
       <c r="M68" s="49" t="str" cm="1">
@@ -6417,7 +6510,7 @@
       <c r="S68" s="17"/>
       <c r="T68" s="17"/>
       <c r="U68" s="17" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="69" spans="1:21" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -6425,30 +6518,30 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="I69" s="47" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="J69" s="47"/>
       <c r="K69" s="47" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="L69" s="47"/>
       <c r="M69" s="49" t="str" cm="1">
@@ -6466,7 +6559,7 @@
       <c r="S69" s="17"/>
       <c r="T69" s="17"/>
       <c r="U69" s="17" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="70" spans="1:21" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -6474,32 +6567,32 @@
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H70" s="17" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="I70" s="47" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="J70" s="47" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="K70" s="47" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="L70" s="47"/>
       <c r="M70" s="49" t="str" cm="1">
@@ -6517,7 +6610,7 @@
       <c r="S70" s="17"/>
       <c r="T70" s="17"/>
       <c r="U70" s="17" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="71" spans="1:21" s="13" customFormat="1" ht="136" x14ac:dyDescent="0.2">
@@ -6525,30 +6618,30 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H71" s="17" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="I71" s="47" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="J71" s="47"/>
       <c r="K71" s="47" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="L71" s="47"/>
       <c r="M71" s="49" t="str" cm="1">
@@ -6566,7 +6659,7 @@
       <c r="S71" s="17"/>
       <c r="T71" s="17"/>
       <c r="U71" s="17" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="72" spans="1:21" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -6574,23 +6667,23 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D72" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="F72" s="8"/>
       <c r="G72" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="I72" s="47"/>
       <c r="J72" s="47"/>
@@ -6611,7 +6704,7 @@
       <c r="S72" s="17"/>
       <c r="T72" s="17"/>
       <c r="U72" s="17" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="73" spans="1:21" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -6619,16 +6712,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
@@ -6652,7 +6745,7 @@
       <c r="S73" s="17"/>
       <c r="T73" s="17"/>
       <c r="U73" s="17" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="74" spans="1:21" s="13" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -6660,16 +6753,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
@@ -6693,7 +6786,7 @@
       <c r="S74" s="17"/>
       <c r="T74" s="17"/>
       <c r="U74" s="17" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="75" spans="1:21" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -6701,16 +6794,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
@@ -6734,7 +6827,7 @@
       <c r="S75" s="17"/>
       <c r="T75" s="17"/>
       <c r="U75" s="17" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="76" spans="1:21" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -6742,16 +6835,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
@@ -6775,7 +6868,7 @@
       <c r="S76" s="17"/>
       <c r="T76" s="17"/>
       <c r="U76" s="17" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="77" spans="1:21" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -6783,16 +6876,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="56" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
@@ -6816,7 +6909,7 @@
       <c r="S77" s="17"/>
       <c r="T77" s="17"/>
       <c r="U77" s="17" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="78" spans="1:21" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -6824,16 +6917,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="56" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D78" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
@@ -6857,7 +6950,7 @@
       <c r="S78" s="17"/>
       <c r="T78" s="17"/>
       <c r="U78" s="17" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="79" spans="1:21" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -6865,16 +6958,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="56" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
@@ -6898,7 +6991,7 @@
       <c r="S79" s="17"/>
       <c r="T79" s="17"/>
       <c r="U79" s="17" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="80" spans="1:21" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -6906,16 +6999,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="56" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
@@ -6939,24 +7032,24 @@
       <c r="S80" s="17"/>
       <c r="T80" s="17"/>
       <c r="U80" s="17" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" s="13" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" s="13" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>80</v>
       </c>
       <c r="B81" s="56" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D81" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
@@ -6980,24 +7073,24 @@
       <c r="S81" s="17"/>
       <c r="T81" s="17"/>
       <c r="U81" s="17" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>81</v>
       </c>
       <c r="B82" s="56" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D82" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
@@ -7021,24 +7114,24 @@
       <c r="S82" s="17"/>
       <c r="T82" s="17"/>
       <c r="U82" s="17" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>82</v>
       </c>
       <c r="B83" s="56" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D83" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
@@ -7062,24 +7155,24 @@
       <c r="S83" s="17"/>
       <c r="T83" s="17"/>
       <c r="U83" s="17" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>83</v>
       </c>
       <c r="B84" s="56" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D84" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
@@ -7103,24 +7196,24 @@
       <c r="S84" s="17"/>
       <c r="T84" s="17"/>
       <c r="U84" s="17" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>84</v>
       </c>
       <c r="B85" s="56" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
@@ -7144,24 +7237,24 @@
       <c r="S85" s="17"/>
       <c r="T85" s="17"/>
       <c r="U85" s="17" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>85</v>
       </c>
       <c r="B86" s="56" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
@@ -7185,24 +7278,24 @@
       <c r="S86" s="17"/>
       <c r="T86" s="17"/>
       <c r="U86" s="17" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" s="13" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>86</v>
       </c>
       <c r="B87" s="56" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="D87" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
@@ -7226,70 +7319,296 @@
       <c r="S87" s="17"/>
       <c r="T87" s="17"/>
       <c r="U87" s="17" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="M88" s="49" t="str" cm="1">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" s="71" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+      <c r="A88" s="7">
+        <v>87</v>
+      </c>
+      <c r="B88" s="63" t="s">
+        <v>450</v>
+      </c>
+      <c r="C88" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="D88" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="E88" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F88" s="64"/>
+      <c r="G88" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" s="65"/>
+      <c r="I88" s="66"/>
+      <c r="J88" s="66"/>
+      <c r="K88" s="66"/>
+      <c r="L88" s="66"/>
+      <c r="M88" s="9" t="str" cm="1">
         <f t="array" ref="M88">PAGE_NAME(B88)</f>
-        <v/>
+        <v>general-guidance</v>
       </c>
       <c r="N88" s="9" t="str" cm="1">
         <f t="array" ref="N88">SECTION_NAME(B88)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="M89" s="49" t="str" cm="1">
+        <v>must-support</v>
+      </c>
+      <c r="O88" s="10" t="str">
+        <f t="shared" ref="O88:O93" si="0">IF(ISNUMBER(SEARCH("MAY", C88)), "MAY", IF(ISNUMBER(SEARCH("SHOULD", C88)), "SHOULD", IF(ISNUMBER(SEARCH("SHALL", C88)), "SHALL", IF(ISNUMBER(SEARCH("SHOULD NOT", C88)), "SHOULD NOT", IF(ISNUMBER(SEARCH("SHALL NOT", C88)), "SHALL NOT", "")))))</f>
+        <v>SHALL</v>
+      </c>
+      <c r="P88" s="10" t="str">
+        <f t="shared" ref="P88:P93" si="1">IF(ISNUMBER(SEARCH("server", C88)), "Server", IF(ISNUMBER(SEARCH("Server", C88)), "Server", IF(ISNUMBER(SEARCH("client", C88)), "Client", IF(ISNUMBER(SEARCH("Client", C88)), "Client", IF(ISNUMBER(SEARCH("US Core Responder", C88)), "Server", IF(ISNUMBER(SEARCH("US Core Requestor", C88)), "Client", ""))))))</f>
+        <v>Server</v>
+      </c>
+      <c r="Q88" s="67" t="s">
+        <v>452</v>
+      </c>
+      <c r="R88" s="67"/>
+      <c r="S88" s="65"/>
+      <c r="T88" s="67"/>
+      <c r="U88" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="W88" s="68"/>
+      <c r="X88" s="69"/>
+      <c r="Y88" s="70"/>
+    </row>
+    <row r="89" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+      <c r="A89" s="7">
+        <v>88</v>
+      </c>
+      <c r="B89" s="63" t="s">
+        <v>450</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G89" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" s="9" t="str" cm="1">
         <f t="array" ref="M89">PAGE_NAME(B89)</f>
-        <v/>
+        <v>general-guidance</v>
       </c>
       <c r="N89" s="9" t="str" cm="1">
         <f t="array" ref="N89">SECTION_NAME(B89)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="M90" s="49" t="str" cm="1">
+        <v>must-support</v>
+      </c>
+      <c r="O89" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>SHALL</v>
+      </c>
+      <c r="P89" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Client</v>
+      </c>
+      <c r="Q89" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="S89" s="17"/>
+      <c r="T89" s="10"/>
+      <c r="U89" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="W89" s="68"/>
+      <c r="X89" s="69"/>
+      <c r="Y89" s="13"/>
+    </row>
+    <row r="90" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+      <c r="A90" s="7">
+        <v>89</v>
+      </c>
+      <c r="B90" s="63" t="s">
+        <v>450</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G90" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" s="9" t="str" cm="1">
         <f t="array" ref="M90">PAGE_NAME(B90)</f>
-        <v/>
+        <v>general-guidance</v>
       </c>
       <c r="N90" s="9" t="str" cm="1">
         <f t="array" ref="N90">SECTION_NAME(B90)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="M91" s="49" t="str" cm="1">
+        <v>must-support</v>
+      </c>
+      <c r="O90" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>SHALL</v>
+      </c>
+      <c r="P90" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Server</v>
+      </c>
+      <c r="Q90" s="10"/>
+      <c r="S90" s="17"/>
+      <c r="T90" s="10"/>
+      <c r="U90" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="X90" s="13"/>
+      <c r="Y90" s="13"/>
+    </row>
+    <row r="91" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+      <c r="A91" s="7">
+        <v>90</v>
+      </c>
+      <c r="B91" s="63" t="s">
+        <v>450</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G91" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="M91" s="9" t="str" cm="1">
         <f t="array" ref="M91">PAGE_NAME(B91)</f>
-        <v/>
+        <v>general-guidance</v>
       </c>
       <c r="N91" s="9" t="str" cm="1">
         <f t="array" ref="N91">SECTION_NAME(B91)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="M92" s="49" t="str" cm="1">
+        <v>must-support</v>
+      </c>
+      <c r="O91" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>SHALL</v>
+      </c>
+      <c r="P91" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Server</v>
+      </c>
+      <c r="Q91" s="10"/>
+      <c r="S91" s="17"/>
+      <c r="T91" s="10"/>
+      <c r="U91" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="W91" s="68"/>
+      <c r="X91" s="72"/>
+      <c r="Y91" s="13"/>
+    </row>
+    <row r="92" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+      <c r="A92" s="7">
+        <v>91</v>
+      </c>
+      <c r="B92" s="63" t="s">
+        <v>450</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G92" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" s="9" t="str" cm="1">
         <f t="array" ref="M92">PAGE_NAME(B92)</f>
-        <v/>
+        <v>general-guidance</v>
       </c>
       <c r="N92" s="9" t="str" cm="1">
         <f t="array" ref="N92">SECTION_NAME(B92)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="M93" s="49" t="str" cm="1">
+        <v>must-support</v>
+      </c>
+      <c r="O92" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>SHALL</v>
+      </c>
+      <c r="P92" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Server</v>
+      </c>
+      <c r="Q92" s="10"/>
+      <c r="S92" s="17"/>
+      <c r="T92" s="10"/>
+      <c r="U92" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="W92" s="68"/>
+      <c r="X92" s="72"/>
+      <c r="Y92" s="13"/>
+    </row>
+    <row r="93" spans="1:25" ht="204" x14ac:dyDescent="0.2">
+      <c r="A93" s="7">
+        <v>92</v>
+      </c>
+      <c r="B93" s="63" t="s">
+        <v>450</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G93" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="M93" s="9" t="str" cm="1">
         <f t="array" ref="M93">PAGE_NAME(B93)</f>
-        <v/>
+        <v>general-guidance</v>
       </c>
       <c r="N93" s="9" t="str" cm="1">
         <f t="array" ref="N93">SECTION_NAME(B93)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+        <v>must-support</v>
+      </c>
+      <c r="O93" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>SHALL</v>
+      </c>
+      <c r="P93" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Server</v>
+      </c>
+      <c r="Q93" s="10"/>
+      <c r="S93" s="17"/>
+      <c r="T93" s="10"/>
+      <c r="U93" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="W93" s="68"/>
+      <c r="X93" s="72"/>
+      <c r="Y93" s="13"/>
+    </row>
+    <row r="94" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="M94" s="49" t="str" cm="1">
         <f t="array" ref="M94">PAGE_NAME(B94)</f>
         <v/>
@@ -7299,7 +7618,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="M95" s="49" t="str" cm="1">
         <f t="array" ref="M95">PAGE_NAME(B95)</f>
         <v/>
@@ -7309,7 +7628,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="M96" s="49" t="str" cm="1">
         <f t="array" ref="M96">PAGE_NAME(B96)</f>
         <v/>
@@ -9982,13 +10301,13 @@
           <x14:formula1>
             <xm:f>'Column Data'!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G1 G71:G1048576 G32:G69</xm:sqref>
+          <xm:sqref>G1 G32:G69 G71:G87 G94:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E4674F63-1385-CC4E-8BD3-C6C35FDAB413}">
           <x14:formula1>
             <xm:f>'Column Data'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>D71:D1048576 D2:D69</xm:sqref>
+          <xm:sqref>D2:D69 D71:D87 D94:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10014,1998 +10333,1998 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="204" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="36" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="36" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="36" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B29" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B30" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B31" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B32" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="36" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B33" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B34" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="36" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="36" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B36" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="36" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="36" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="36" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="36" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="36" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="36" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B42" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="36" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B43" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="36" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B44" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="36" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B45" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C45" s="53" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="36" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B46" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="36" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B47" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C47" s="54" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="36" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B48" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C48" s="54" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A49" s="36" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B49" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="36" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="36" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="36" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B52" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="36" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="36" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="36" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B55" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="36" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B56" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="36" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B57" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="36" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B58" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="36" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B59" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="36" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B60" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="36" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B61" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="36" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B62" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="36" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B63" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="36" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="36" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B65" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="36" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B66" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="36" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B67" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="36" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B68" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="36" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B69" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="36" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B70" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="36" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B71" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="36" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B72" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="36" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B73" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="36" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B74" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="36" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B75" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="36" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B76" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="36" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B77" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="36" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="36" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B79" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="36" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="36" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="36" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="36" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="36" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B84" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="36" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B85" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="36" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B86" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="36" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B87" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="36" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="36" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B89" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="36" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B90" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="36" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B91" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="36" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B92" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="36" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B93" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="36" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B94" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="36" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B95" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="36" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B96" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="36" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B97" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="36" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B98" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="36" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B99" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="36" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B100" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="36" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B101" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="36" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B102" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="36" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B103" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="36" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B104" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="36" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B105" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="36" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B106" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="36" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B107" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="36" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B108" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="36" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B109" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="36" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B110" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="36" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B111" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="36" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B112" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="36" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B113" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="36" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B114" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="36" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B115" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="36" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B116" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="36" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B117" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="36" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B118" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="36" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B119" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="36" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B120" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="36" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B121" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="36" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B122" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="36" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B123" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="36" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B124" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="36" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B125" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="36" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B126" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="36" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B127" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="36" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B128" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="36" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B129" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="36" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B130" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="36" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B131" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="36" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B132" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="36" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B133" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="36" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B134" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="36" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B135" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="36" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B136" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="36" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B137" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="36" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B138" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="36" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B139" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="36" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B140" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="36" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B141" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="36" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B142" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="36" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B143" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="36" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B144" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="36" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B145" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="36" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B146" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="36" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B147" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="36" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B148" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="36" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B149" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="36" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B150" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="36" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B151" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="36" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B152" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="36" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B153" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="36" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B154" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="36" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B155" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="36" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B156" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="36" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B157" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="36" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B158" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="36" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B159" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="36" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B160" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="36" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B161" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="36" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B162" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="36" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B163" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="36" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B164" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="36" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B165" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="36" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B166" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="36" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B167" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="36" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B168" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="36" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B169" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="36" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B170" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="36" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B171" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="36" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B172" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="36" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B173" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="36" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B174" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="36" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B175" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="36" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B176" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="36" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B177" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="36" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B178" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="36" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B179" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="36" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B180" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="36" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B181" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="36" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B182" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -12212,7 +12531,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B1" s="62"/>
     </row>
@@ -12222,79 +12541,79 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -12323,19 +12642,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -12343,13 +12662,13 @@
         <v>0.1</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="E2" s="45">
         <v>45553</v>
@@ -12360,13 +12679,13 @@
         <v>0.2</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="E3" s="45">
         <v>45553</v>
@@ -12393,75 +12712,75 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D2" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D3" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D4" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
